--- a/test/org/hy/common/report/junit/total03/零件喷涂工时统计汇总表_export.xlsx
+++ b/test/org/hy/common/report/junit/total03/零件喷涂工时统计汇总表_export.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mesWork_idea\src\main\webapp\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhengWei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18948" windowHeight="4308" tabRatio="396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="4305" tabRatio="396"/>
   </bookViews>
   <sheets>
     <sheet name="零件喷涂工时统计明细表" sheetId="1" r:id="rId1"/>
@@ -260,14 +260,14 @@
     <t>2017年07月份</t>
   </si>
   <si>
-    <t>起止日期 ：:startDate - :endDate                                                                                                                                                                                                                                                                                                                                        导出时间：:exportTime        来源：制造执行系统</t>
+    <t>起止日期 ：{:beginDate} - {:endDate}                                                                                                                                                                                                                                                                                                                                        导出时间：:exportTime        来源：制造执行系统</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,6 +464,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,12 +484,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +508,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,23 +583,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -635,23 +618,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -831,57 +797,57 @@
   <dimension ref="A1:S690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -906,7 +872,7 @@
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -965,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>25</v>
       </c>
@@ -1022,7 +988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>42</v>
       </c>
@@ -1059,7 +1025,7 @@
       </c>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1076,7 +1042,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1093,7 +1059,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1110,7 +1076,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1127,7 +1093,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1144,7 +1110,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1161,7 +1127,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1178,7 +1144,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1195,7 +1161,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1212,7 +1178,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1229,7 +1195,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1246,7 +1212,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1263,7 +1229,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1280,7 +1246,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1297,7 +1263,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1314,7 +1280,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1331,7 +1297,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1348,7 +1314,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1365,7 +1331,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1382,7 +1348,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1399,7 +1365,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1416,7 +1382,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1433,7 +1399,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1450,7 +1416,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1467,7 +1433,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1484,7 +1450,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1501,7 +1467,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1518,7 +1484,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1535,7 +1501,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1552,7 +1518,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1569,7 +1535,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1586,7 +1552,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1603,7 +1569,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1620,7 +1586,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1637,7 +1603,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1654,7 +1620,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1671,7 +1637,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1688,7 +1654,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1705,7 +1671,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1722,7 +1688,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1739,7 +1705,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1756,7 +1722,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1773,7 +1739,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1790,7 +1756,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1807,7 +1773,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1824,7 +1790,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1841,7 +1807,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1858,7 +1824,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1875,7 +1841,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1892,7 +1858,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1909,7 +1875,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1926,7 +1892,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1943,7 +1909,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1960,7 +1926,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1977,7 +1943,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1994,7 +1960,7 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2011,7 +1977,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2028,7 +1994,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2045,7 +2011,7 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2062,7 +2028,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2079,7 +2045,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2096,7 +2062,7 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2113,7 +2079,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2130,7 +2096,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2147,7 +2113,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2164,7 +2130,7 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2181,7 +2147,7 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2198,7 +2164,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2215,7 +2181,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2232,7 +2198,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2249,7 +2215,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2266,7 +2232,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2283,7 +2249,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2300,7 +2266,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2317,7 +2283,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2334,7 +2300,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2351,7 +2317,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2368,7 +2334,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2385,7 +2351,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2402,7 +2368,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2419,7 +2385,7 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2436,7 +2402,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2453,7 +2419,7 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2470,7 +2436,7 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2487,7 +2453,7 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2504,7 +2470,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2521,7 +2487,7 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2538,7 +2504,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2555,7 +2521,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2572,7 +2538,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2589,7 +2555,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2606,7 +2572,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2623,7 +2589,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2640,7 +2606,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2657,7 +2623,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2674,7 +2640,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2691,7 +2657,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2708,7 +2674,7 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2725,7 +2691,7 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2742,7 +2708,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2759,7 +2725,7 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2776,7 +2742,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2793,7 +2759,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2810,7 +2776,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2827,7 +2793,7 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2844,7 +2810,7 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2861,7 +2827,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2878,7 +2844,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2895,7 +2861,7 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2912,7 +2878,7 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2929,7 +2895,7 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2946,7 +2912,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2963,7 +2929,7 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2980,7 +2946,7 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2997,7 +2963,7 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3014,7 +2980,7 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3031,7 +2997,7 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3048,7 +3014,7 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3065,7 +3031,7 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L124" s="5"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
@@ -3074,7 +3040,7 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L125" s="5"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
@@ -3083,7 +3049,7 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L126" s="5"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
@@ -3092,7 +3058,7 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L127" s="5"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
@@ -3101,7 +3067,7 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L128" s="5"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
@@ -3110,7 +3076,7 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
     </row>
-    <row r="129" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L129" s="5"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
@@ -3119,7 +3085,7 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
     </row>
-    <row r="130" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L130" s="5"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
@@ -3128,7 +3094,7 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
     </row>
-    <row r="131" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L131" s="5"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
@@ -3137,7 +3103,7 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
     </row>
-    <row r="132" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L132" s="5"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
@@ -3146,7 +3112,7 @@
       <c r="Q132" s="4"/>
       <c r="R132" s="4"/>
     </row>
-    <row r="133" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L133" s="5"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
@@ -3155,7 +3121,7 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
     </row>
-    <row r="134" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L134" s="5"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -3164,7 +3130,7 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
     </row>
-    <row r="135" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L135" s="5"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
@@ -3173,7 +3139,7 @@
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
     </row>
-    <row r="136" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L136" s="5"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
@@ -3182,7 +3148,7 @@
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
     </row>
-    <row r="137" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L137" s="5"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
@@ -3191,7 +3157,7 @@
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
     </row>
-    <row r="138" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L138" s="5"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
@@ -3200,7 +3166,7 @@
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
     </row>
-    <row r="139" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L139" s="5"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
@@ -3209,7 +3175,7 @@
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
     </row>
-    <row r="140" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L140" s="5"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
@@ -3218,7 +3184,7 @@
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
     </row>
-    <row r="141" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L141" s="5"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
@@ -3227,7 +3193,7 @@
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
     </row>
-    <row r="142" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L142" s="5"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
@@ -3236,7 +3202,7 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
     </row>
-    <row r="143" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L143" s="5"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
@@ -3245,7 +3211,7 @@
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
     </row>
-    <row r="144" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L144" s="5"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
@@ -3254,7 +3220,7 @@
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
     </row>
-    <row r="145" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L145" s="5"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
@@ -3263,7 +3229,7 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
     </row>
-    <row r="146" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L146" s="5"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
@@ -3272,7 +3238,7 @@
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
     </row>
-    <row r="147" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L147" s="5"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
@@ -3281,7 +3247,7 @@
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
     </row>
-    <row r="148" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L148" s="5"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
@@ -3290,7 +3256,7 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
     </row>
-    <row r="149" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L149" s="5"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
@@ -3299,7 +3265,7 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
     </row>
-    <row r="150" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L150" s="5"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
@@ -3308,7 +3274,7 @@
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
     </row>
-    <row r="151" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L151" s="5"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
@@ -3317,7 +3283,7 @@
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
     </row>
-    <row r="152" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L152" s="5"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
@@ -3326,7 +3292,7 @@
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
     </row>
-    <row r="153" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L153" s="5"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
@@ -3335,7 +3301,7 @@
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
     </row>
-    <row r="154" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L154" s="5"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
@@ -3344,7 +3310,7 @@
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
     </row>
-    <row r="155" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L155" s="5"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
@@ -3353,7 +3319,7 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
     </row>
-    <row r="156" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L156" s="5"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
@@ -3362,7 +3328,7 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
     </row>
-    <row r="157" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L157" s="5"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
@@ -3371,7 +3337,7 @@
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
     </row>
-    <row r="158" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L158" s="5"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
@@ -3380,7 +3346,7 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
     </row>
-    <row r="159" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L159" s="5"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
@@ -3389,7 +3355,7 @@
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
     </row>
-    <row r="160" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L160" s="5"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -3398,7 +3364,7 @@
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
     </row>
-    <row r="161" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L161" s="5"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
@@ -3407,7 +3373,7 @@
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
     </row>
-    <row r="162" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L162" s="5"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
@@ -3416,7 +3382,7 @@
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
     </row>
-    <row r="163" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L163" s="5"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
@@ -3425,7 +3391,7 @@
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
     </row>
-    <row r="164" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L164" s="5"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
@@ -3434,7 +3400,7 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
     </row>
-    <row r="165" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L165" s="5"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
@@ -3443,7 +3409,7 @@
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
     </row>
-    <row r="166" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L166" s="5"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
@@ -3452,7 +3418,7 @@
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
     </row>
-    <row r="167" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L167" s="5"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
@@ -3461,7 +3427,7 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
     </row>
-    <row r="168" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L168" s="5"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
@@ -3470,7 +3436,7 @@
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
     </row>
-    <row r="169" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L169" s="5"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
@@ -3479,7 +3445,7 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
     </row>
-    <row r="170" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L170" s="5"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
@@ -3488,7 +3454,7 @@
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
     </row>
-    <row r="171" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L171" s="5"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
@@ -3497,7 +3463,7 @@
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
     </row>
-    <row r="172" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L172" s="5"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
@@ -3506,7 +3472,7 @@
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
     </row>
-    <row r="173" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L173" s="5"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
@@ -3515,7 +3481,7 @@
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
     </row>
-    <row r="174" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L174" s="5"/>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
@@ -3524,7 +3490,7 @@
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
     </row>
-    <row r="175" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L175" s="5"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
@@ -3533,7 +3499,7 @@
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
     </row>
-    <row r="176" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L176" s="5"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
@@ -3542,7 +3508,7 @@
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
     </row>
-    <row r="177" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L177" s="5"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
@@ -3551,7 +3517,7 @@
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
     </row>
-    <row r="178" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L178" s="5"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
@@ -3560,7 +3526,7 @@
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
     </row>
-    <row r="179" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L179" s="5"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
@@ -3569,7 +3535,7 @@
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
     </row>
-    <row r="180" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L180" s="5"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
@@ -3578,7 +3544,7 @@
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
     </row>
-    <row r="181" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L181" s="5"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
@@ -3587,7 +3553,7 @@
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
     </row>
-    <row r="182" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L182" s="5"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
@@ -3596,7 +3562,7 @@
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
     </row>
-    <row r="183" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L183" s="5"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
@@ -3605,7 +3571,7 @@
       <c r="Q183" s="4"/>
       <c r="R183" s="4"/>
     </row>
-    <row r="184" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L184" s="5"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
@@ -3614,7 +3580,7 @@
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
     </row>
-    <row r="185" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L185" s="5"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
@@ -3623,7 +3589,7 @@
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
     </row>
-    <row r="186" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L186" s="5"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
@@ -3632,7 +3598,7 @@
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L187" s="5"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
@@ -3641,7 +3607,7 @@
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L188" s="5"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
@@ -3650,7 +3616,7 @@
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L189" s="5"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
@@ -3659,7 +3625,7 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L190" s="5"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
@@ -3668,7 +3634,7 @@
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L191" s="5"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
@@ -3677,7 +3643,7 @@
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
     </row>
-    <row r="192" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L192" s="5"/>
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
@@ -3686,7 +3652,7 @@
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
     </row>
-    <row r="193" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L193" s="5"/>
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
@@ -3695,7 +3661,7 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
     </row>
-    <row r="194" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L194" s="5"/>
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
@@ -3704,7 +3670,7 @@
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
     </row>
-    <row r="195" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L195" s="5"/>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
@@ -3713,7 +3679,7 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
     </row>
-    <row r="196" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L196" s="5"/>
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
@@ -3722,7 +3688,7 @@
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
     </row>
-    <row r="197" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L197" s="5"/>
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
@@ -3731,7 +3697,7 @@
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
     </row>
-    <row r="198" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L198" s="5"/>
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
@@ -3740,7 +3706,7 @@
       <c r="Q198" s="4"/>
       <c r="R198" s="4"/>
     </row>
-    <row r="199" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L199" s="5"/>
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
@@ -3749,7 +3715,7 @@
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
     </row>
-    <row r="200" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L200" s="5"/>
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
@@ -3758,7 +3724,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
     </row>
-    <row r="201" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L201" s="5"/>
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
@@ -3767,7 +3733,7 @@
       <c r="Q201" s="4"/>
       <c r="R201" s="4"/>
     </row>
-    <row r="202" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L202" s="5"/>
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
@@ -3776,7 +3742,7 @@
       <c r="Q202" s="4"/>
       <c r="R202" s="4"/>
     </row>
-    <row r="203" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L203" s="5"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
@@ -3785,7 +3751,7 @@
       <c r="Q203" s="4"/>
       <c r="R203" s="4"/>
     </row>
-    <row r="204" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L204" s="5"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
@@ -3794,7 +3760,7 @@
       <c r="Q204" s="4"/>
       <c r="R204" s="4"/>
     </row>
-    <row r="205" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L205" s="5"/>
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
@@ -3803,7 +3769,7 @@
       <c r="Q205" s="4"/>
       <c r="R205" s="4"/>
     </row>
-    <row r="206" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L206" s="5"/>
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
@@ -3812,7 +3778,7 @@
       <c r="Q206" s="4"/>
       <c r="R206" s="4"/>
     </row>
-    <row r="207" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L207" s="5"/>
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
@@ -3821,7 +3787,7 @@
       <c r="Q207" s="4"/>
       <c r="R207" s="4"/>
     </row>
-    <row r="208" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L208" s="5"/>
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
@@ -3830,7 +3796,7 @@
       <c r="Q208" s="4"/>
       <c r="R208" s="4"/>
     </row>
-    <row r="209" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L209" s="5"/>
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
@@ -3839,7 +3805,7 @@
       <c r="Q209" s="4"/>
       <c r="R209" s="4"/>
     </row>
-    <row r="210" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L210" s="5"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
@@ -3848,7 +3814,7 @@
       <c r="Q210" s="4"/>
       <c r="R210" s="4"/>
     </row>
-    <row r="211" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L211" s="5"/>
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
@@ -3857,7 +3823,7 @@
       <c r="Q211" s="4"/>
       <c r="R211" s="4"/>
     </row>
-    <row r="212" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L212" s="5"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
@@ -3866,7 +3832,7 @@
       <c r="Q212" s="4"/>
       <c r="R212" s="4"/>
     </row>
-    <row r="213" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L213" s="5"/>
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
@@ -3875,7 +3841,7 @@
       <c r="Q213" s="4"/>
       <c r="R213" s="4"/>
     </row>
-    <row r="214" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L214" s="5"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
@@ -3884,7 +3850,7 @@
       <c r="Q214" s="4"/>
       <c r="R214" s="4"/>
     </row>
-    <row r="215" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L215" s="5"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
@@ -3893,7 +3859,7 @@
       <c r="Q215" s="4"/>
       <c r="R215" s="4"/>
     </row>
-    <row r="216" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L216" s="5"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
@@ -3902,7 +3868,7 @@
       <c r="Q216" s="4"/>
       <c r="R216" s="4"/>
     </row>
-    <row r="217" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L217" s="5"/>
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
@@ -3911,7 +3877,7 @@
       <c r="Q217" s="4"/>
       <c r="R217" s="4"/>
     </row>
-    <row r="218" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L218" s="5"/>
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
@@ -3920,7 +3886,7 @@
       <c r="Q218" s="4"/>
       <c r="R218" s="4"/>
     </row>
-    <row r="219" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L219" s="5"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
@@ -3929,7 +3895,7 @@
       <c r="Q219" s="4"/>
       <c r="R219" s="4"/>
     </row>
-    <row r="220" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L220" s="5"/>
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
@@ -3938,7 +3904,7 @@
       <c r="Q220" s="4"/>
       <c r="R220" s="4"/>
     </row>
-    <row r="221" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L221" s="5"/>
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
@@ -3947,7 +3913,7 @@
       <c r="Q221" s="4"/>
       <c r="R221" s="4"/>
     </row>
-    <row r="222" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L222" s="5"/>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
@@ -3956,7 +3922,7 @@
       <c r="Q222" s="4"/>
       <c r="R222" s="4"/>
     </row>
-    <row r="223" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L223" s="5"/>
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
@@ -3965,7 +3931,7 @@
       <c r="Q223" s="4"/>
       <c r="R223" s="4"/>
     </row>
-    <row r="224" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L224" s="5"/>
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
@@ -3974,7 +3940,7 @@
       <c r="Q224" s="4"/>
       <c r="R224" s="4"/>
     </row>
-    <row r="225" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L225" s="5"/>
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
@@ -3983,7 +3949,7 @@
       <c r="Q225" s="4"/>
       <c r="R225" s="4"/>
     </row>
-    <row r="226" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L226" s="5"/>
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
@@ -3992,7 +3958,7 @@
       <c r="Q226" s="4"/>
       <c r="R226" s="4"/>
     </row>
-    <row r="227" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L227" s="5"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
@@ -4001,7 +3967,7 @@
       <c r="Q227" s="4"/>
       <c r="R227" s="4"/>
     </row>
-    <row r="228" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L228" s="5"/>
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
@@ -4010,7 +3976,7 @@
       <c r="Q228" s="4"/>
       <c r="R228" s="4"/>
     </row>
-    <row r="229" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L229" s="5"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
@@ -4019,7 +3985,7 @@
       <c r="Q229" s="4"/>
       <c r="R229" s="4"/>
     </row>
-    <row r="230" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L230" s="5"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
@@ -4028,7 +3994,7 @@
       <c r="Q230" s="4"/>
       <c r="R230" s="4"/>
     </row>
-    <row r="231" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L231" s="5"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
@@ -4037,7 +4003,7 @@
       <c r="Q231" s="4"/>
       <c r="R231" s="4"/>
     </row>
-    <row r="232" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L232" s="5"/>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
@@ -4046,7 +4012,7 @@
       <c r="Q232" s="4"/>
       <c r="R232" s="4"/>
     </row>
-    <row r="233" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L233" s="5"/>
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
@@ -4055,7 +4021,7 @@
       <c r="Q233" s="4"/>
       <c r="R233" s="4"/>
     </row>
-    <row r="234" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L234" s="5"/>
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
@@ -4064,7 +4030,7 @@
       <c r="Q234" s="4"/>
       <c r="R234" s="4"/>
     </row>
-    <row r="235" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L235" s="5"/>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
@@ -4073,7 +4039,7 @@
       <c r="Q235" s="4"/>
       <c r="R235" s="4"/>
     </row>
-    <row r="236" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L236" s="5"/>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
@@ -4082,7 +4048,7 @@
       <c r="Q236" s="4"/>
       <c r="R236" s="4"/>
     </row>
-    <row r="237" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L237" s="5"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
@@ -4091,7 +4057,7 @@
       <c r="Q237" s="4"/>
       <c r="R237" s="4"/>
     </row>
-    <row r="238" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L238" s="5"/>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
@@ -4100,7 +4066,7 @@
       <c r="Q238" s="4"/>
       <c r="R238" s="4"/>
     </row>
-    <row r="239" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L239" s="5"/>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
@@ -4109,7 +4075,7 @@
       <c r="Q239" s="4"/>
       <c r="R239" s="4"/>
     </row>
-    <row r="240" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L240" s="5"/>
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
@@ -4118,7 +4084,7 @@
       <c r="Q240" s="4"/>
       <c r="R240" s="4"/>
     </row>
-    <row r="241" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L241" s="5"/>
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
@@ -4127,7 +4093,7 @@
       <c r="Q241" s="4"/>
       <c r="R241" s="4"/>
     </row>
-    <row r="242" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L242" s="5"/>
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
@@ -4136,7 +4102,7 @@
       <c r="Q242" s="4"/>
       <c r="R242" s="4"/>
     </row>
-    <row r="243" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L243" s="5"/>
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
@@ -4145,7 +4111,7 @@
       <c r="Q243" s="4"/>
       <c r="R243" s="4"/>
     </row>
-    <row r="244" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L244" s="5"/>
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
@@ -4154,7 +4120,7 @@
       <c r="Q244" s="4"/>
       <c r="R244" s="4"/>
     </row>
-    <row r="245" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L245" s="5"/>
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
@@ -4163,7 +4129,7 @@
       <c r="Q245" s="4"/>
       <c r="R245" s="4"/>
     </row>
-    <row r="246" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L246" s="5"/>
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
@@ -4172,7 +4138,7 @@
       <c r="Q246" s="4"/>
       <c r="R246" s="4"/>
     </row>
-    <row r="247" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L247" s="5"/>
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
@@ -4181,7 +4147,7 @@
       <c r="Q247" s="4"/>
       <c r="R247" s="4"/>
     </row>
-    <row r="248" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L248" s="5"/>
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
@@ -4190,7 +4156,7 @@
       <c r="Q248" s="4"/>
       <c r="R248" s="4"/>
     </row>
-    <row r="249" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L249" s="5"/>
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
@@ -4199,7 +4165,7 @@
       <c r="Q249" s="4"/>
       <c r="R249" s="4"/>
     </row>
-    <row r="250" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L250" s="5"/>
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
@@ -4208,7 +4174,7 @@
       <c r="Q250" s="4"/>
       <c r="R250" s="4"/>
     </row>
-    <row r="251" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L251" s="5"/>
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
@@ -4217,7 +4183,7 @@
       <c r="Q251" s="4"/>
       <c r="R251" s="4"/>
     </row>
-    <row r="252" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L252" s="5"/>
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
@@ -4226,7 +4192,7 @@
       <c r="Q252" s="4"/>
       <c r="R252" s="4"/>
     </row>
-    <row r="253" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L253" s="5"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
@@ -4235,7 +4201,7 @@
       <c r="Q253" s="4"/>
       <c r="R253" s="4"/>
     </row>
-    <row r="254" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L254" s="5"/>
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
@@ -4244,7 +4210,7 @@
       <c r="Q254" s="4"/>
       <c r="R254" s="4"/>
     </row>
-    <row r="255" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L255" s="5"/>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
@@ -4253,7 +4219,7 @@
       <c r="Q255" s="4"/>
       <c r="R255" s="4"/>
     </row>
-    <row r="256" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L256" s="5"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
@@ -4262,7 +4228,7 @@
       <c r="Q256" s="4"/>
       <c r="R256" s="4"/>
     </row>
-    <row r="257" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L257" s="5"/>
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
@@ -4271,7 +4237,7 @@
       <c r="Q257" s="4"/>
       <c r="R257" s="4"/>
     </row>
-    <row r="258" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L258" s="5"/>
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
@@ -4280,7 +4246,7 @@
       <c r="Q258" s="4"/>
       <c r="R258" s="4"/>
     </row>
-    <row r="259" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L259" s="5"/>
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
@@ -4289,7 +4255,7 @@
       <c r="Q259" s="4"/>
       <c r="R259" s="4"/>
     </row>
-    <row r="260" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L260" s="5"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
@@ -4298,7 +4264,7 @@
       <c r="Q260" s="4"/>
       <c r="R260" s="4"/>
     </row>
-    <row r="261" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L261" s="5"/>
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
@@ -4307,7 +4273,7 @@
       <c r="Q261" s="4"/>
       <c r="R261" s="4"/>
     </row>
-    <row r="262" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L262" s="5"/>
       <c r="M262" s="4"/>
       <c r="N262" s="4"/>
@@ -4316,7 +4282,7 @@
       <c r="Q262" s="4"/>
       <c r="R262" s="4"/>
     </row>
-    <row r="263" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L263" s="5"/>
       <c r="M263" s="4"/>
       <c r="N263" s="4"/>
@@ -4325,7 +4291,7 @@
       <c r="Q263" s="4"/>
       <c r="R263" s="4"/>
     </row>
-    <row r="264" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L264" s="5"/>
       <c r="M264" s="4"/>
       <c r="N264" s="4"/>
@@ -4334,7 +4300,7 @@
       <c r="Q264" s="4"/>
       <c r="R264" s="4"/>
     </row>
-    <row r="265" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L265" s="5"/>
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
@@ -4343,7 +4309,7 @@
       <c r="Q265" s="4"/>
       <c r="R265" s="4"/>
     </row>
-    <row r="266" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L266" s="5"/>
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
@@ -4352,7 +4318,7 @@
       <c r="Q266" s="4"/>
       <c r="R266" s="4"/>
     </row>
-    <row r="267" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L267" s="5"/>
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
@@ -4361,7 +4327,7 @@
       <c r="Q267" s="4"/>
       <c r="R267" s="4"/>
     </row>
-    <row r="268" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L268" s="5"/>
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
@@ -4370,7 +4336,7 @@
       <c r="Q268" s="4"/>
       <c r="R268" s="4"/>
     </row>
-    <row r="269" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L269" s="5"/>
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
@@ -4379,7 +4345,7 @@
       <c r="Q269" s="4"/>
       <c r="R269" s="4"/>
     </row>
-    <row r="270" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L270" s="5"/>
       <c r="M270" s="4"/>
       <c r="N270" s="4"/>
@@ -4388,7 +4354,7 @@
       <c r="Q270" s="4"/>
       <c r="R270" s="4"/>
     </row>
-    <row r="271" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L271" s="5"/>
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
@@ -4397,7 +4363,7 @@
       <c r="Q271" s="4"/>
       <c r="R271" s="4"/>
     </row>
-    <row r="272" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L272" s="5"/>
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
@@ -4406,7 +4372,7 @@
       <c r="Q272" s="4"/>
       <c r="R272" s="4"/>
     </row>
-    <row r="273" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L273" s="5"/>
       <c r="M273" s="4"/>
       <c r="N273" s="4"/>
@@ -4415,7 +4381,7 @@
       <c r="Q273" s="4"/>
       <c r="R273" s="4"/>
     </row>
-    <row r="274" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L274" s="5"/>
       <c r="M274" s="4"/>
       <c r="N274" s="4"/>
@@ -4424,7 +4390,7 @@
       <c r="Q274" s="4"/>
       <c r="R274" s="4"/>
     </row>
-    <row r="275" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L275" s="5"/>
       <c r="M275" s="4"/>
       <c r="N275" s="4"/>
@@ -4433,7 +4399,7 @@
       <c r="Q275" s="4"/>
       <c r="R275" s="4"/>
     </row>
-    <row r="276" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L276" s="5"/>
       <c r="M276" s="4"/>
       <c r="N276" s="4"/>
@@ -4442,7 +4408,7 @@
       <c r="Q276" s="4"/>
       <c r="R276" s="4"/>
     </row>
-    <row r="277" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L277" s="5"/>
       <c r="M277" s="4"/>
       <c r="N277" s="4"/>
@@ -4451,7 +4417,7 @@
       <c r="Q277" s="4"/>
       <c r="R277" s="4"/>
     </row>
-    <row r="278" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L278" s="5"/>
       <c r="M278" s="4"/>
       <c r="N278" s="4"/>
@@ -4460,7 +4426,7 @@
       <c r="Q278" s="4"/>
       <c r="R278" s="4"/>
     </row>
-    <row r="279" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L279" s="5"/>
       <c r="M279" s="4"/>
       <c r="N279" s="4"/>
@@ -4469,7 +4435,7 @@
       <c r="Q279" s="4"/>
       <c r="R279" s="4"/>
     </row>
-    <row r="280" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L280" s="5"/>
       <c r="M280" s="4"/>
       <c r="N280" s="4"/>
@@ -4478,7 +4444,7 @@
       <c r="Q280" s="4"/>
       <c r="R280" s="4"/>
     </row>
-    <row r="281" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L281" s="5"/>
       <c r="M281" s="4"/>
       <c r="N281" s="4"/>
@@ -4487,7 +4453,7 @@
       <c r="Q281" s="4"/>
       <c r="R281" s="4"/>
     </row>
-    <row r="282" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L282" s="5"/>
       <c r="M282" s="4"/>
       <c r="N282" s="4"/>
@@ -4496,7 +4462,7 @@
       <c r="Q282" s="4"/>
       <c r="R282" s="4"/>
     </row>
-    <row r="283" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L283" s="5"/>
       <c r="M283" s="4"/>
       <c r="N283" s="4"/>
@@ -4505,7 +4471,7 @@
       <c r="Q283" s="4"/>
       <c r="R283" s="4"/>
     </row>
-    <row r="284" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L284" s="5"/>
       <c r="M284" s="4"/>
       <c r="N284" s="4"/>
@@ -4514,7 +4480,7 @@
       <c r="Q284" s="4"/>
       <c r="R284" s="4"/>
     </row>
-    <row r="285" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L285" s="5"/>
       <c r="M285" s="4"/>
       <c r="N285" s="4"/>
@@ -4523,7 +4489,7 @@
       <c r="Q285" s="4"/>
       <c r="R285" s="4"/>
     </row>
-    <row r="286" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L286" s="5"/>
       <c r="M286" s="4"/>
       <c r="N286" s="4"/>
@@ -4532,7 +4498,7 @@
       <c r="Q286" s="4"/>
       <c r="R286" s="4"/>
     </row>
-    <row r="287" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L287" s="5"/>
       <c r="M287" s="4"/>
       <c r="N287" s="4"/>
@@ -4541,7 +4507,7 @@
       <c r="Q287" s="4"/>
       <c r="R287" s="4"/>
     </row>
-    <row r="288" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L288" s="5"/>
       <c r="M288" s="4"/>
       <c r="N288" s="4"/>
@@ -4550,7 +4516,7 @@
       <c r="Q288" s="4"/>
       <c r="R288" s="4"/>
     </row>
-    <row r="289" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L289" s="5"/>
       <c r="M289" s="4"/>
       <c r="N289" s="4"/>
@@ -4559,7 +4525,7 @@
       <c r="Q289" s="4"/>
       <c r="R289" s="4"/>
     </row>
-    <row r="290" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L290" s="5"/>
       <c r="M290" s="4"/>
       <c r="N290" s="4"/>
@@ -4568,7 +4534,7 @@
       <c r="Q290" s="4"/>
       <c r="R290" s="4"/>
     </row>
-    <row r="291" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L291" s="5"/>
       <c r="M291" s="4"/>
       <c r="N291" s="4"/>
@@ -4577,7 +4543,7 @@
       <c r="Q291" s="4"/>
       <c r="R291" s="4"/>
     </row>
-    <row r="292" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L292" s="5"/>
       <c r="M292" s="4"/>
       <c r="N292" s="4"/>
@@ -4586,7 +4552,7 @@
       <c r="Q292" s="4"/>
       <c r="R292" s="4"/>
     </row>
-    <row r="293" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L293" s="5"/>
       <c r="M293" s="4"/>
       <c r="N293" s="4"/>
@@ -4595,7 +4561,7 @@
       <c r="Q293" s="4"/>
       <c r="R293" s="4"/>
     </row>
-    <row r="294" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L294" s="5"/>
       <c r="M294" s="4"/>
       <c r="N294" s="4"/>
@@ -4604,7 +4570,7 @@
       <c r="Q294" s="4"/>
       <c r="R294" s="4"/>
     </row>
-    <row r="295" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L295" s="5"/>
       <c r="M295" s="4"/>
       <c r="N295" s="4"/>
@@ -4613,7 +4579,7 @@
       <c r="Q295" s="4"/>
       <c r="R295" s="4"/>
     </row>
-    <row r="296" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L296" s="5"/>
       <c r="M296" s="4"/>
       <c r="N296" s="4"/>
@@ -4622,7 +4588,7 @@
       <c r="Q296" s="4"/>
       <c r="R296" s="4"/>
     </row>
-    <row r="297" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L297" s="5"/>
       <c r="M297" s="4"/>
       <c r="N297" s="4"/>
@@ -4631,7 +4597,7 @@
       <c r="Q297" s="4"/>
       <c r="R297" s="4"/>
     </row>
-    <row r="298" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L298" s="5"/>
       <c r="M298" s="4"/>
       <c r="N298" s="4"/>
@@ -4640,7 +4606,7 @@
       <c r="Q298" s="4"/>
       <c r="R298" s="4"/>
     </row>
-    <row r="299" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L299" s="5"/>
       <c r="M299" s="4"/>
       <c r="N299" s="4"/>
@@ -4649,7 +4615,7 @@
       <c r="Q299" s="4"/>
       <c r="R299" s="4"/>
     </row>
-    <row r="300" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L300" s="5"/>
       <c r="M300" s="4"/>
       <c r="N300" s="4"/>
@@ -4658,7 +4624,7 @@
       <c r="Q300" s="4"/>
       <c r="R300" s="4"/>
     </row>
-    <row r="301" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L301" s="5"/>
       <c r="M301" s="4"/>
       <c r="N301" s="4"/>
@@ -4667,7 +4633,7 @@
       <c r="Q301" s="4"/>
       <c r="R301" s="4"/>
     </row>
-    <row r="302" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L302" s="5"/>
       <c r="M302" s="4"/>
       <c r="N302" s="4"/>
@@ -4676,7 +4642,7 @@
       <c r="Q302" s="4"/>
       <c r="R302" s="4"/>
     </row>
-    <row r="303" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L303" s="5"/>
       <c r="M303" s="4"/>
       <c r="N303" s="4"/>
@@ -4685,7 +4651,7 @@
       <c r="Q303" s="4"/>
       <c r="R303" s="4"/>
     </row>
-    <row r="304" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L304" s="5"/>
       <c r="M304" s="4"/>
       <c r="N304" s="4"/>
@@ -4694,7 +4660,7 @@
       <c r="Q304" s="4"/>
       <c r="R304" s="4"/>
     </row>
-    <row r="305" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L305" s="5"/>
       <c r="M305" s="4"/>
       <c r="N305" s="4"/>
@@ -4703,7 +4669,7 @@
       <c r="Q305" s="4"/>
       <c r="R305" s="4"/>
     </row>
-    <row r="306" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L306" s="5"/>
       <c r="M306" s="4"/>
       <c r="N306" s="4"/>
@@ -4712,7 +4678,7 @@
       <c r="Q306" s="4"/>
       <c r="R306" s="4"/>
     </row>
-    <row r="307" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L307" s="5"/>
       <c r="M307" s="4"/>
       <c r="N307" s="4"/>
@@ -4721,7 +4687,7 @@
       <c r="Q307" s="4"/>
       <c r="R307" s="4"/>
     </row>
-    <row r="308" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L308" s="5"/>
       <c r="M308" s="4"/>
       <c r="N308" s="4"/>
@@ -4730,7 +4696,7 @@
       <c r="Q308" s="4"/>
       <c r="R308" s="4"/>
     </row>
-    <row r="309" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L309" s="5"/>
       <c r="M309" s="4"/>
       <c r="N309" s="4"/>
@@ -4739,7 +4705,7 @@
       <c r="Q309" s="4"/>
       <c r="R309" s="4"/>
     </row>
-    <row r="310" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L310" s="5"/>
       <c r="M310" s="4"/>
       <c r="N310" s="4"/>
@@ -4748,7 +4714,7 @@
       <c r="Q310" s="4"/>
       <c r="R310" s="4"/>
     </row>
-    <row r="311" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L311" s="5"/>
       <c r="M311" s="4"/>
       <c r="N311" s="4"/>
@@ -4757,7 +4723,7 @@
       <c r="Q311" s="4"/>
       <c r="R311" s="4"/>
     </row>
-    <row r="312" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L312" s="5"/>
       <c r="M312" s="4"/>
       <c r="N312" s="4"/>
@@ -4766,7 +4732,7 @@
       <c r="Q312" s="4"/>
       <c r="R312" s="4"/>
     </row>
-    <row r="313" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L313" s="5"/>
       <c r="M313" s="4"/>
       <c r="N313" s="4"/>
@@ -4775,7 +4741,7 @@
       <c r="Q313" s="4"/>
       <c r="R313" s="4"/>
     </row>
-    <row r="314" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L314" s="5"/>
       <c r="M314" s="4"/>
       <c r="N314" s="4"/>
@@ -4784,7 +4750,7 @@
       <c r="Q314" s="4"/>
       <c r="R314" s="4"/>
     </row>
-    <row r="315" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L315" s="5"/>
       <c r="M315" s="4"/>
       <c r="N315" s="4"/>
@@ -4793,7 +4759,7 @@
       <c r="Q315" s="4"/>
       <c r="R315" s="4"/>
     </row>
-    <row r="316" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L316" s="5"/>
       <c r="M316" s="4"/>
       <c r="N316" s="4"/>
@@ -4802,7 +4768,7 @@
       <c r="Q316" s="4"/>
       <c r="R316" s="4"/>
     </row>
-    <row r="317" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L317" s="5"/>
       <c r="M317" s="4"/>
       <c r="N317" s="4"/>
@@ -4811,7 +4777,7 @@
       <c r="Q317" s="4"/>
       <c r="R317" s="4"/>
     </row>
-    <row r="318" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L318" s="5"/>
       <c r="M318" s="4"/>
       <c r="N318" s="4"/>
@@ -4820,7 +4786,7 @@
       <c r="Q318" s="4"/>
       <c r="R318" s="4"/>
     </row>
-    <row r="319" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L319" s="5"/>
       <c r="M319" s="4"/>
       <c r="N319" s="4"/>
@@ -4829,7 +4795,7 @@
       <c r="Q319" s="4"/>
       <c r="R319" s="4"/>
     </row>
-    <row r="320" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L320" s="5"/>
       <c r="M320" s="4"/>
       <c r="N320" s="4"/>
@@ -4838,7 +4804,7 @@
       <c r="Q320" s="4"/>
       <c r="R320" s="4"/>
     </row>
-    <row r="321" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L321" s="5"/>
       <c r="M321" s="4"/>
       <c r="N321" s="4"/>
@@ -4847,7 +4813,7 @@
       <c r="Q321" s="4"/>
       <c r="R321" s="4"/>
     </row>
-    <row r="322" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L322" s="5"/>
       <c r="M322" s="4"/>
       <c r="N322" s="4"/>
@@ -4856,7 +4822,7 @@
       <c r="Q322" s="4"/>
       <c r="R322" s="4"/>
     </row>
-    <row r="323" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L323" s="5"/>
       <c r="M323" s="4"/>
       <c r="N323" s="4"/>
@@ -4865,7 +4831,7 @@
       <c r="Q323" s="4"/>
       <c r="R323" s="4"/>
     </row>
-    <row r="324" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L324" s="5"/>
       <c r="M324" s="4"/>
       <c r="N324" s="4"/>
@@ -4874,7 +4840,7 @@
       <c r="Q324" s="4"/>
       <c r="R324" s="4"/>
     </row>
-    <row r="325" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L325" s="5"/>
       <c r="M325" s="4"/>
       <c r="N325" s="4"/>
@@ -4883,7 +4849,7 @@
       <c r="Q325" s="4"/>
       <c r="R325" s="4"/>
     </row>
-    <row r="326" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L326" s="5"/>
       <c r="M326" s="4"/>
       <c r="N326" s="4"/>
@@ -4892,7 +4858,7 @@
       <c r="Q326" s="4"/>
       <c r="R326" s="4"/>
     </row>
-    <row r="327" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L327" s="5"/>
       <c r="M327" s="4"/>
       <c r="N327" s="4"/>
@@ -4901,7 +4867,7 @@
       <c r="Q327" s="4"/>
       <c r="R327" s="4"/>
     </row>
-    <row r="328" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L328" s="5"/>
       <c r="M328" s="4"/>
       <c r="N328" s="4"/>
@@ -4910,7 +4876,7 @@
       <c r="Q328" s="4"/>
       <c r="R328" s="4"/>
     </row>
-    <row r="329" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L329" s="5"/>
       <c r="M329" s="4"/>
       <c r="N329" s="4"/>
@@ -4919,7 +4885,7 @@
       <c r="Q329" s="4"/>
       <c r="R329" s="4"/>
     </row>
-    <row r="330" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L330" s="5"/>
       <c r="M330" s="4"/>
       <c r="N330" s="4"/>
@@ -4928,7 +4894,7 @@
       <c r="Q330" s="4"/>
       <c r="R330" s="4"/>
     </row>
-    <row r="331" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L331" s="5"/>
       <c r="M331" s="4"/>
       <c r="N331" s="4"/>
@@ -4937,7 +4903,7 @@
       <c r="Q331" s="4"/>
       <c r="R331" s="4"/>
     </row>
-    <row r="332" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L332" s="5"/>
       <c r="M332" s="4"/>
       <c r="N332" s="4"/>
@@ -4946,7 +4912,7 @@
       <c r="Q332" s="4"/>
       <c r="R332" s="4"/>
     </row>
-    <row r="333" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L333" s="5"/>
       <c r="M333" s="4"/>
       <c r="N333" s="4"/>
@@ -4955,7 +4921,7 @@
       <c r="Q333" s="4"/>
       <c r="R333" s="4"/>
     </row>
-    <row r="334" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L334" s="5"/>
       <c r="M334" s="4"/>
       <c r="N334" s="4"/>
@@ -4964,7 +4930,7 @@
       <c r="Q334" s="4"/>
       <c r="R334" s="4"/>
     </row>
-    <row r="335" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L335" s="5"/>
       <c r="M335" s="4"/>
       <c r="N335" s="4"/>
@@ -4973,7 +4939,7 @@
       <c r="Q335" s="4"/>
       <c r="R335" s="4"/>
     </row>
-    <row r="336" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L336" s="5"/>
       <c r="M336" s="4"/>
       <c r="N336" s="4"/>
@@ -4982,7 +4948,7 @@
       <c r="Q336" s="4"/>
       <c r="R336" s="4"/>
     </row>
-    <row r="337" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L337" s="5"/>
       <c r="M337" s="4"/>
       <c r="N337" s="4"/>
@@ -4991,7 +4957,7 @@
       <c r="Q337" s="4"/>
       <c r="R337" s="4"/>
     </row>
-    <row r="338" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L338" s="5"/>
       <c r="M338" s="4"/>
       <c r="N338" s="4"/>
@@ -5000,7 +4966,7 @@
       <c r="Q338" s="4"/>
       <c r="R338" s="4"/>
     </row>
-    <row r="339" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L339" s="5"/>
       <c r="M339" s="4"/>
       <c r="N339" s="4"/>
@@ -5009,7 +4975,7 @@
       <c r="Q339" s="4"/>
       <c r="R339" s="4"/>
     </row>
-    <row r="340" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L340" s="5"/>
       <c r="M340" s="4"/>
       <c r="N340" s="4"/>
@@ -5018,7 +4984,7 @@
       <c r="Q340" s="4"/>
       <c r="R340" s="4"/>
     </row>
-    <row r="341" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L341" s="5"/>
       <c r="M341" s="4"/>
       <c r="N341" s="4"/>
@@ -5027,7 +4993,7 @@
       <c r="Q341" s="4"/>
       <c r="R341" s="4"/>
     </row>
-    <row r="342" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L342" s="5"/>
       <c r="M342" s="4"/>
       <c r="N342" s="4"/>
@@ -5036,7 +5002,7 @@
       <c r="Q342" s="4"/>
       <c r="R342" s="4"/>
     </row>
-    <row r="343" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L343" s="5"/>
       <c r="M343" s="4"/>
       <c r="N343" s="4"/>
@@ -5045,7 +5011,7 @@
       <c r="Q343" s="4"/>
       <c r="R343" s="4"/>
     </row>
-    <row r="344" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L344" s="5"/>
       <c r="M344" s="4"/>
       <c r="N344" s="4"/>
@@ -5054,7 +5020,7 @@
       <c r="Q344" s="4"/>
       <c r="R344" s="4"/>
     </row>
-    <row r="345" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L345" s="5"/>
       <c r="M345" s="4"/>
       <c r="N345" s="4"/>
@@ -5063,7 +5029,7 @@
       <c r="Q345" s="4"/>
       <c r="R345" s="4"/>
     </row>
-    <row r="346" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L346" s="5"/>
       <c r="M346" s="4"/>
       <c r="N346" s="4"/>
@@ -5072,7 +5038,7 @@
       <c r="Q346" s="4"/>
       <c r="R346" s="4"/>
     </row>
-    <row r="347" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L347" s="5"/>
       <c r="M347" s="4"/>
       <c r="N347" s="4"/>
@@ -5081,7 +5047,7 @@
       <c r="Q347" s="4"/>
       <c r="R347" s="4"/>
     </row>
-    <row r="348" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L348" s="5"/>
       <c r="M348" s="4"/>
       <c r="N348" s="4"/>
@@ -5090,7 +5056,7 @@
       <c r="Q348" s="4"/>
       <c r="R348" s="4"/>
     </row>
-    <row r="349" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L349" s="5"/>
       <c r="M349" s="4"/>
       <c r="N349" s="4"/>
@@ -5099,7 +5065,7 @@
       <c r="Q349" s="4"/>
       <c r="R349" s="4"/>
     </row>
-    <row r="350" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L350" s="5"/>
       <c r="M350" s="4"/>
       <c r="N350" s="4"/>
@@ -5108,7 +5074,7 @@
       <c r="Q350" s="4"/>
       <c r="R350" s="4"/>
     </row>
-    <row r="351" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L351" s="5"/>
       <c r="M351" s="4"/>
       <c r="N351" s="4"/>
@@ -5117,7 +5083,7 @@
       <c r="Q351" s="4"/>
       <c r="R351" s="4"/>
     </row>
-    <row r="352" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L352" s="5"/>
       <c r="M352" s="4"/>
       <c r="N352" s="4"/>
@@ -5126,7 +5092,7 @@
       <c r="Q352" s="4"/>
       <c r="R352" s="4"/>
     </row>
-    <row r="353" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L353" s="5"/>
       <c r="M353" s="4"/>
       <c r="N353" s="4"/>
@@ -5135,7 +5101,7 @@
       <c r="Q353" s="4"/>
       <c r="R353" s="4"/>
     </row>
-    <row r="354" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L354" s="5"/>
       <c r="M354" s="4"/>
       <c r="N354" s="4"/>
@@ -5144,7 +5110,7 @@
       <c r="Q354" s="4"/>
       <c r="R354" s="4"/>
     </row>
-    <row r="355" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L355" s="5"/>
       <c r="M355" s="4"/>
       <c r="N355" s="4"/>
@@ -5153,7 +5119,7 @@
       <c r="Q355" s="4"/>
       <c r="R355" s="4"/>
     </row>
-    <row r="356" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L356" s="5"/>
       <c r="M356" s="4"/>
       <c r="N356" s="4"/>
@@ -5162,7 +5128,7 @@
       <c r="Q356" s="4"/>
       <c r="R356" s="4"/>
     </row>
-    <row r="357" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L357" s="5"/>
       <c r="M357" s="4"/>
       <c r="N357" s="4"/>
@@ -5171,7 +5137,7 @@
       <c r="Q357" s="4"/>
       <c r="R357" s="4"/>
     </row>
-    <row r="358" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L358" s="5"/>
       <c r="M358" s="4"/>
       <c r="N358" s="4"/>
@@ -5180,7 +5146,7 @@
       <c r="Q358" s="4"/>
       <c r="R358" s="4"/>
     </row>
-    <row r="359" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L359" s="5"/>
       <c r="M359" s="4"/>
       <c r="N359" s="4"/>
@@ -5189,7 +5155,7 @@
       <c r="Q359" s="4"/>
       <c r="R359" s="4"/>
     </row>
-    <row r="360" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L360" s="5"/>
       <c r="M360" s="4"/>
       <c r="N360" s="4"/>
@@ -5198,7 +5164,7 @@
       <c r="Q360" s="4"/>
       <c r="R360" s="4"/>
     </row>
-    <row r="361" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L361" s="5"/>
       <c r="M361" s="4"/>
       <c r="N361" s="4"/>
@@ -5207,7 +5173,7 @@
       <c r="Q361" s="4"/>
       <c r="R361" s="4"/>
     </row>
-    <row r="362" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L362" s="5"/>
       <c r="M362" s="4"/>
       <c r="N362" s="4"/>
@@ -5216,7 +5182,7 @@
       <c r="Q362" s="4"/>
       <c r="R362" s="4"/>
     </row>
-    <row r="363" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L363" s="5"/>
       <c r="M363" s="4"/>
       <c r="N363" s="4"/>
@@ -5225,7 +5191,7 @@
       <c r="Q363" s="4"/>
       <c r="R363" s="4"/>
     </row>
-    <row r="364" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L364" s="5"/>
       <c r="M364" s="4"/>
       <c r="N364" s="4"/>
@@ -5234,7 +5200,7 @@
       <c r="Q364" s="4"/>
       <c r="R364" s="4"/>
     </row>
-    <row r="365" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L365" s="5"/>
       <c r="M365" s="4"/>
       <c r="N365" s="4"/>
@@ -5243,7 +5209,7 @@
       <c r="Q365" s="4"/>
       <c r="R365" s="4"/>
     </row>
-    <row r="366" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L366" s="5"/>
       <c r="M366" s="4"/>
       <c r="N366" s="4"/>
@@ -5252,7 +5218,7 @@
       <c r="Q366" s="4"/>
       <c r="R366" s="4"/>
     </row>
-    <row r="367" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L367" s="5"/>
       <c r="M367" s="4"/>
       <c r="N367" s="4"/>
@@ -5261,7 +5227,7 @@
       <c r="Q367" s="4"/>
       <c r="R367" s="4"/>
     </row>
-    <row r="368" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L368" s="5"/>
       <c r="M368" s="4"/>
       <c r="N368" s="4"/>
@@ -5270,7 +5236,7 @@
       <c r="Q368" s="4"/>
       <c r="R368" s="4"/>
     </row>
-    <row r="369" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L369" s="5"/>
       <c r="M369" s="4"/>
       <c r="N369" s="4"/>
@@ -5279,7 +5245,7 @@
       <c r="Q369" s="4"/>
       <c r="R369" s="4"/>
     </row>
-    <row r="370" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L370" s="5"/>
       <c r="M370" s="4"/>
       <c r="N370" s="4"/>
@@ -5288,7 +5254,7 @@
       <c r="Q370" s="4"/>
       <c r="R370" s="4"/>
     </row>
-    <row r="371" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L371" s="5"/>
       <c r="M371" s="4"/>
       <c r="N371" s="4"/>
@@ -5297,7 +5263,7 @@
       <c r="Q371" s="4"/>
       <c r="R371" s="4"/>
     </row>
-    <row r="372" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L372" s="5"/>
       <c r="M372" s="4"/>
       <c r="N372" s="4"/>
@@ -5306,7 +5272,7 @@
       <c r="Q372" s="4"/>
       <c r="R372" s="4"/>
     </row>
-    <row r="373" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L373" s="5"/>
       <c r="M373" s="4"/>
       <c r="N373" s="4"/>
@@ -5315,7 +5281,7 @@
       <c r="Q373" s="4"/>
       <c r="R373" s="4"/>
     </row>
-    <row r="374" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L374" s="5"/>
       <c r="M374" s="4"/>
       <c r="N374" s="4"/>
@@ -5324,7 +5290,7 @@
       <c r="Q374" s="4"/>
       <c r="R374" s="4"/>
     </row>
-    <row r="375" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L375" s="5"/>
       <c r="M375" s="4"/>
       <c r="N375" s="4"/>
@@ -5333,7 +5299,7 @@
       <c r="Q375" s="4"/>
       <c r="R375" s="4"/>
     </row>
-    <row r="376" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L376" s="5"/>
       <c r="M376" s="4"/>
       <c r="N376" s="4"/>
@@ -5342,7 +5308,7 @@
       <c r="Q376" s="4"/>
       <c r="R376" s="4"/>
     </row>
-    <row r="377" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L377" s="5"/>
       <c r="M377" s="4"/>
       <c r="N377" s="4"/>
@@ -5351,7 +5317,7 @@
       <c r="Q377" s="4"/>
       <c r="R377" s="4"/>
     </row>
-    <row r="378" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L378" s="5"/>
       <c r="M378" s="4"/>
       <c r="N378" s="4"/>
@@ -5360,7 +5326,7 @@
       <c r="Q378" s="4"/>
       <c r="R378" s="4"/>
     </row>
-    <row r="379" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L379" s="5"/>
       <c r="M379" s="4"/>
       <c r="N379" s="4"/>
@@ -5369,7 +5335,7 @@
       <c r="Q379" s="4"/>
       <c r="R379" s="4"/>
     </row>
-    <row r="380" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L380" s="5"/>
       <c r="M380" s="4"/>
       <c r="N380" s="4"/>
@@ -5378,7 +5344,7 @@
       <c r="Q380" s="4"/>
       <c r="R380" s="4"/>
     </row>
-    <row r="381" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L381" s="5"/>
       <c r="M381" s="4"/>
       <c r="N381" s="4"/>
@@ -5387,7 +5353,7 @@
       <c r="Q381" s="4"/>
       <c r="R381" s="4"/>
     </row>
-    <row r="382" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L382" s="5"/>
       <c r="M382" s="4"/>
       <c r="N382" s="4"/>
@@ -5396,7 +5362,7 @@
       <c r="Q382" s="4"/>
       <c r="R382" s="4"/>
     </row>
-    <row r="383" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L383" s="5"/>
       <c r="M383" s="4"/>
       <c r="N383" s="4"/>
@@ -5405,7 +5371,7 @@
       <c r="Q383" s="4"/>
       <c r="R383" s="4"/>
     </row>
-    <row r="384" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L384" s="5"/>
       <c r="M384" s="4"/>
       <c r="N384" s="4"/>
@@ -5414,7 +5380,7 @@
       <c r="Q384" s="4"/>
       <c r="R384" s="4"/>
     </row>
-    <row r="385" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L385" s="5"/>
       <c r="M385" s="4"/>
       <c r="N385" s="4"/>
@@ -5423,7 +5389,7 @@
       <c r="Q385" s="4"/>
       <c r="R385" s="4"/>
     </row>
-    <row r="386" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L386" s="5"/>
       <c r="M386" s="4"/>
       <c r="N386" s="4"/>
@@ -5432,7 +5398,7 @@
       <c r="Q386" s="4"/>
       <c r="R386" s="4"/>
     </row>
-    <row r="387" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L387" s="5"/>
       <c r="M387" s="4"/>
       <c r="N387" s="4"/>
@@ -5441,7 +5407,7 @@
       <c r="Q387" s="4"/>
       <c r="R387" s="4"/>
     </row>
-    <row r="388" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L388" s="5"/>
       <c r="M388" s="4"/>
       <c r="N388" s="4"/>
@@ -5450,7 +5416,7 @@
       <c r="Q388" s="4"/>
       <c r="R388" s="4"/>
     </row>
-    <row r="389" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L389" s="5"/>
       <c r="M389" s="4"/>
       <c r="N389" s="4"/>
@@ -5459,7 +5425,7 @@
       <c r="Q389" s="4"/>
       <c r="R389" s="4"/>
     </row>
-    <row r="390" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L390" s="5"/>
       <c r="M390" s="4"/>
       <c r="N390" s="4"/>
@@ -5468,7 +5434,7 @@
       <c r="Q390" s="4"/>
       <c r="R390" s="4"/>
     </row>
-    <row r="391" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L391" s="5"/>
       <c r="M391" s="4"/>
       <c r="N391" s="4"/>
@@ -5477,7 +5443,7 @@
       <c r="Q391" s="4"/>
       <c r="R391" s="4"/>
     </row>
-    <row r="392" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L392" s="5"/>
       <c r="M392" s="4"/>
       <c r="N392" s="4"/>
@@ -5486,7 +5452,7 @@
       <c r="Q392" s="4"/>
       <c r="R392" s="4"/>
     </row>
-    <row r="393" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L393" s="5"/>
       <c r="M393" s="4"/>
       <c r="N393" s="4"/>
@@ -5495,7 +5461,7 @@
       <c r="Q393" s="4"/>
       <c r="R393" s="4"/>
     </row>
-    <row r="394" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L394" s="5"/>
       <c r="M394" s="4"/>
       <c r="N394" s="4"/>
@@ -5504,7 +5470,7 @@
       <c r="Q394" s="4"/>
       <c r="R394" s="4"/>
     </row>
-    <row r="395" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L395" s="5"/>
       <c r="M395" s="4"/>
       <c r="N395" s="4"/>
@@ -5513,7 +5479,7 @@
       <c r="Q395" s="4"/>
       <c r="R395" s="4"/>
     </row>
-    <row r="396" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L396" s="5"/>
       <c r="M396" s="4"/>
       <c r="N396" s="4"/>
@@ -5522,7 +5488,7 @@
       <c r="Q396" s="4"/>
       <c r="R396" s="4"/>
     </row>
-    <row r="397" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L397" s="5"/>
       <c r="M397" s="4"/>
       <c r="N397" s="4"/>
@@ -5531,7 +5497,7 @@
       <c r="Q397" s="4"/>
       <c r="R397" s="4"/>
     </row>
-    <row r="398" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L398" s="5"/>
       <c r="M398" s="4"/>
       <c r="N398" s="4"/>
@@ -5540,7 +5506,7 @@
       <c r="Q398" s="4"/>
       <c r="R398" s="4"/>
     </row>
-    <row r="399" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L399" s="5"/>
       <c r="M399" s="4"/>
       <c r="N399" s="4"/>
@@ -5549,7 +5515,7 @@
       <c r="Q399" s="4"/>
       <c r="R399" s="4"/>
     </row>
-    <row r="400" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L400" s="5"/>
       <c r="M400" s="4"/>
       <c r="N400" s="4"/>
@@ -5558,7 +5524,7 @@
       <c r="Q400" s="4"/>
       <c r="R400" s="4"/>
     </row>
-    <row r="401" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L401" s="5"/>
       <c r="M401" s="4"/>
       <c r="N401" s="4"/>
@@ -5567,7 +5533,7 @@
       <c r="Q401" s="4"/>
       <c r="R401" s="4"/>
     </row>
-    <row r="402" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L402" s="5"/>
       <c r="M402" s="4"/>
       <c r="N402" s="4"/>
@@ -5576,7 +5542,7 @@
       <c r="Q402" s="4"/>
       <c r="R402" s="4"/>
     </row>
-    <row r="403" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L403" s="5"/>
       <c r="M403" s="4"/>
       <c r="N403" s="4"/>
@@ -5585,7 +5551,7 @@
       <c r="Q403" s="4"/>
       <c r="R403" s="4"/>
     </row>
-    <row r="404" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L404" s="5"/>
       <c r="M404" s="4"/>
       <c r="N404" s="4"/>
@@ -5594,7 +5560,7 @@
       <c r="Q404" s="4"/>
       <c r="R404" s="4"/>
     </row>
-    <row r="405" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L405" s="5"/>
       <c r="M405" s="4"/>
       <c r="N405" s="4"/>
@@ -5603,7 +5569,7 @@
       <c r="Q405" s="4"/>
       <c r="R405" s="4"/>
     </row>
-    <row r="406" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L406" s="5"/>
       <c r="M406" s="4"/>
       <c r="N406" s="4"/>
@@ -5612,7 +5578,7 @@
       <c r="Q406" s="4"/>
       <c r="R406" s="4"/>
     </row>
-    <row r="407" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L407" s="5"/>
       <c r="M407" s="4"/>
       <c r="N407" s="4"/>
@@ -5621,7 +5587,7 @@
       <c r="Q407" s="4"/>
       <c r="R407" s="4"/>
     </row>
-    <row r="408" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L408" s="5"/>
       <c r="M408" s="4"/>
       <c r="N408" s="4"/>
@@ -5630,7 +5596,7 @@
       <c r="Q408" s="4"/>
       <c r="R408" s="4"/>
     </row>
-    <row r="409" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L409" s="5"/>
       <c r="M409" s="4"/>
       <c r="N409" s="4"/>
@@ -5639,7 +5605,7 @@
       <c r="Q409" s="4"/>
       <c r="R409" s="4"/>
     </row>
-    <row r="410" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L410" s="5"/>
       <c r="M410" s="4"/>
       <c r="N410" s="4"/>
@@ -5648,7 +5614,7 @@
       <c r="Q410" s="4"/>
       <c r="R410" s="4"/>
     </row>
-    <row r="411" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L411" s="5"/>
       <c r="M411" s="4"/>
       <c r="N411" s="4"/>
@@ -5657,7 +5623,7 @@
       <c r="Q411" s="4"/>
       <c r="R411" s="4"/>
     </row>
-    <row r="412" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L412" s="5"/>
       <c r="M412" s="4"/>
       <c r="N412" s="4"/>
@@ -5666,7 +5632,7 @@
       <c r="Q412" s="4"/>
       <c r="R412" s="4"/>
     </row>
-    <row r="413" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L413" s="5"/>
       <c r="M413" s="4"/>
       <c r="N413" s="4"/>
@@ -5675,7 +5641,7 @@
       <c r="Q413" s="4"/>
       <c r="R413" s="4"/>
     </row>
-    <row r="414" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L414" s="5"/>
       <c r="M414" s="4"/>
       <c r="N414" s="4"/>
@@ -5684,7 +5650,7 @@
       <c r="Q414" s="4"/>
       <c r="R414" s="4"/>
     </row>
-    <row r="415" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L415" s="5"/>
       <c r="M415" s="4"/>
       <c r="N415" s="4"/>
@@ -5693,7 +5659,7 @@
       <c r="Q415" s="4"/>
       <c r="R415" s="4"/>
     </row>
-    <row r="416" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L416" s="5"/>
       <c r="M416" s="4"/>
       <c r="N416" s="4"/>
@@ -5702,7 +5668,7 @@
       <c r="Q416" s="4"/>
       <c r="R416" s="4"/>
     </row>
-    <row r="417" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L417" s="5"/>
       <c r="M417" s="4"/>
       <c r="N417" s="4"/>
@@ -5711,7 +5677,7 @@
       <c r="Q417" s="4"/>
       <c r="R417" s="4"/>
     </row>
-    <row r="418" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L418" s="5"/>
       <c r="M418" s="4"/>
       <c r="N418" s="4"/>
@@ -5720,7 +5686,7 @@
       <c r="Q418" s="4"/>
       <c r="R418" s="4"/>
     </row>
-    <row r="419" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L419" s="5"/>
       <c r="M419" s="4"/>
       <c r="N419" s="4"/>
@@ -5729,7 +5695,7 @@
       <c r="Q419" s="4"/>
       <c r="R419" s="4"/>
     </row>
-    <row r="420" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L420" s="5"/>
       <c r="M420" s="4"/>
       <c r="N420" s="4"/>
@@ -5738,7 +5704,7 @@
       <c r="Q420" s="4"/>
       <c r="R420" s="4"/>
     </row>
-    <row r="421" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L421" s="5"/>
       <c r="M421" s="4"/>
       <c r="N421" s="4"/>
@@ -5747,7 +5713,7 @@
       <c r="Q421" s="4"/>
       <c r="R421" s="4"/>
     </row>
-    <row r="422" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L422" s="5"/>
       <c r="M422" s="4"/>
       <c r="N422" s="4"/>
@@ -5756,7 +5722,7 @@
       <c r="Q422" s="4"/>
       <c r="R422" s="4"/>
     </row>
-    <row r="423" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L423" s="5"/>
       <c r="M423" s="4"/>
       <c r="N423" s="4"/>
@@ -5765,7 +5731,7 @@
       <c r="Q423" s="4"/>
       <c r="R423" s="4"/>
     </row>
-    <row r="424" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L424" s="5"/>
       <c r="M424" s="4"/>
       <c r="N424" s="4"/>
@@ -5774,7 +5740,7 @@
       <c r="Q424" s="4"/>
       <c r="R424" s="4"/>
     </row>
-    <row r="425" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L425" s="5"/>
       <c r="M425" s="4"/>
       <c r="N425" s="4"/>
@@ -5783,7 +5749,7 @@
       <c r="Q425" s="4"/>
       <c r="R425" s="4"/>
     </row>
-    <row r="426" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L426" s="5"/>
       <c r="M426" s="4"/>
       <c r="N426" s="4"/>
@@ -5792,7 +5758,7 @@
       <c r="Q426" s="4"/>
       <c r="R426" s="4"/>
     </row>
-    <row r="427" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L427" s="5"/>
       <c r="M427" s="4"/>
       <c r="N427" s="4"/>
@@ -5801,7 +5767,7 @@
       <c r="Q427" s="4"/>
       <c r="R427" s="4"/>
     </row>
-    <row r="428" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L428" s="5"/>
       <c r="M428" s="4"/>
       <c r="N428" s="4"/>
@@ -5810,7 +5776,7 @@
       <c r="Q428" s="4"/>
       <c r="R428" s="4"/>
     </row>
-    <row r="429" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L429" s="5"/>
       <c r="M429" s="4"/>
       <c r="N429" s="4"/>
@@ -5819,7 +5785,7 @@
       <c r="Q429" s="4"/>
       <c r="R429" s="4"/>
     </row>
-    <row r="430" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L430" s="5"/>
       <c r="M430" s="4"/>
       <c r="N430" s="4"/>
@@ -5828,7 +5794,7 @@
       <c r="Q430" s="4"/>
       <c r="R430" s="4"/>
     </row>
-    <row r="431" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L431" s="5"/>
       <c r="M431" s="4"/>
       <c r="N431" s="4"/>
@@ -5837,7 +5803,7 @@
       <c r="Q431" s="4"/>
       <c r="R431" s="4"/>
     </row>
-    <row r="432" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L432" s="5"/>
       <c r="M432" s="4"/>
       <c r="N432" s="4"/>
@@ -5846,7 +5812,7 @@
       <c r="Q432" s="4"/>
       <c r="R432" s="4"/>
     </row>
-    <row r="433" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L433" s="5"/>
       <c r="M433" s="4"/>
       <c r="N433" s="4"/>
@@ -5855,7 +5821,7 @@
       <c r="Q433" s="4"/>
       <c r="R433" s="4"/>
     </row>
-    <row r="434" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L434" s="5"/>
       <c r="M434" s="4"/>
       <c r="N434" s="4"/>
@@ -5864,7 +5830,7 @@
       <c r="Q434" s="4"/>
       <c r="R434" s="4"/>
     </row>
-    <row r="435" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L435" s="5"/>
       <c r="M435" s="4"/>
       <c r="N435" s="4"/>
@@ -5873,7 +5839,7 @@
       <c r="Q435" s="4"/>
       <c r="R435" s="4"/>
     </row>
-    <row r="436" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L436" s="5"/>
       <c r="M436" s="4"/>
       <c r="N436" s="4"/>
@@ -5882,7 +5848,7 @@
       <c r="Q436" s="4"/>
       <c r="R436" s="4"/>
     </row>
-    <row r="437" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L437" s="5"/>
       <c r="M437" s="4"/>
       <c r="N437" s="4"/>
@@ -5891,7 +5857,7 @@
       <c r="Q437" s="4"/>
       <c r="R437" s="4"/>
     </row>
-    <row r="438" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L438" s="5"/>
       <c r="M438" s="4"/>
       <c r="N438" s="4"/>
@@ -5900,7 +5866,7 @@
       <c r="Q438" s="4"/>
       <c r="R438" s="4"/>
     </row>
-    <row r="439" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L439" s="5"/>
       <c r="M439" s="4"/>
       <c r="N439" s="4"/>
@@ -5909,7 +5875,7 @@
       <c r="Q439" s="4"/>
       <c r="R439" s="4"/>
     </row>
-    <row r="440" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L440" s="5"/>
       <c r="M440" s="4"/>
       <c r="N440" s="4"/>
@@ -5918,7 +5884,7 @@
       <c r="Q440" s="4"/>
       <c r="R440" s="4"/>
     </row>
-    <row r="441" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L441" s="5"/>
       <c r="M441" s="4"/>
       <c r="N441" s="4"/>
@@ -5927,7 +5893,7 @@
       <c r="Q441" s="4"/>
       <c r="R441" s="4"/>
     </row>
-    <row r="442" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L442" s="5"/>
       <c r="M442" s="4"/>
       <c r="N442" s="4"/>
@@ -5936,7 +5902,7 @@
       <c r="Q442" s="4"/>
       <c r="R442" s="4"/>
     </row>
-    <row r="443" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L443" s="5"/>
       <c r="M443" s="4"/>
       <c r="N443" s="4"/>
@@ -5945,7 +5911,7 @@
       <c r="Q443" s="4"/>
       <c r="R443" s="4"/>
     </row>
-    <row r="444" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L444" s="5"/>
       <c r="M444" s="4"/>
       <c r="N444" s="4"/>
@@ -5954,7 +5920,7 @@
       <c r="Q444" s="4"/>
       <c r="R444" s="4"/>
     </row>
-    <row r="445" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L445" s="5"/>
       <c r="M445" s="4"/>
       <c r="N445" s="4"/>
@@ -5963,7 +5929,7 @@
       <c r="Q445" s="4"/>
       <c r="R445" s="4"/>
     </row>
-    <row r="446" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L446" s="5"/>
       <c r="M446" s="4"/>
       <c r="N446" s="4"/>
@@ -5972,7 +5938,7 @@
       <c r="Q446" s="4"/>
       <c r="R446" s="4"/>
     </row>
-    <row r="447" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L447" s="5"/>
       <c r="M447" s="4"/>
       <c r="N447" s="4"/>
@@ -5981,7 +5947,7 @@
       <c r="Q447" s="4"/>
       <c r="R447" s="4"/>
     </row>
-    <row r="448" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L448" s="5"/>
       <c r="M448" s="4"/>
       <c r="N448" s="4"/>
@@ -5990,7 +5956,7 @@
       <c r="Q448" s="4"/>
       <c r="R448" s="4"/>
     </row>
-    <row r="449" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L449" s="5"/>
       <c r="M449" s="4"/>
       <c r="N449" s="4"/>
@@ -5999,7 +5965,7 @@
       <c r="Q449" s="4"/>
       <c r="R449" s="4"/>
     </row>
-    <row r="450" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L450" s="5"/>
       <c r="M450" s="4"/>
       <c r="N450" s="4"/>
@@ -6008,7 +5974,7 @@
       <c r="Q450" s="4"/>
       <c r="R450" s="4"/>
     </row>
-    <row r="451" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L451" s="5"/>
       <c r="M451" s="4"/>
       <c r="N451" s="4"/>
@@ -6017,7 +5983,7 @@
       <c r="Q451" s="4"/>
       <c r="R451" s="4"/>
     </row>
-    <row r="452" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L452" s="5"/>
       <c r="M452" s="4"/>
       <c r="N452" s="4"/>
@@ -6026,7 +5992,7 @@
       <c r="Q452" s="4"/>
       <c r="R452" s="4"/>
     </row>
-    <row r="453" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L453" s="5"/>
       <c r="M453" s="4"/>
       <c r="N453" s="4"/>
@@ -6035,7 +6001,7 @@
       <c r="Q453" s="4"/>
       <c r="R453" s="4"/>
     </row>
-    <row r="454" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L454" s="5"/>
       <c r="M454" s="4"/>
       <c r="N454" s="4"/>
@@ -6044,7 +6010,7 @@
       <c r="Q454" s="4"/>
       <c r="R454" s="4"/>
     </row>
-    <row r="455" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L455" s="5"/>
       <c r="M455" s="4"/>
       <c r="N455" s="4"/>
@@ -6053,7 +6019,7 @@
       <c r="Q455" s="4"/>
       <c r="R455" s="4"/>
     </row>
-    <row r="456" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L456" s="5"/>
       <c r="M456" s="4"/>
       <c r="N456" s="4"/>
@@ -6062,7 +6028,7 @@
       <c r="Q456" s="4"/>
       <c r="R456" s="4"/>
     </row>
-    <row r="457" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L457" s="5"/>
       <c r="M457" s="4"/>
       <c r="N457" s="4"/>
@@ -6071,7 +6037,7 @@
       <c r="Q457" s="4"/>
       <c r="R457" s="4"/>
     </row>
-    <row r="458" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L458" s="5"/>
       <c r="M458" s="4"/>
       <c r="N458" s="4"/>
@@ -6080,7 +6046,7 @@
       <c r="Q458" s="4"/>
       <c r="R458" s="4"/>
     </row>
-    <row r="459" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L459" s="5"/>
       <c r="M459" s="4"/>
       <c r="N459" s="4"/>
@@ -6089,7 +6055,7 @@
       <c r="Q459" s="4"/>
       <c r="R459" s="4"/>
     </row>
-    <row r="460" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L460" s="5"/>
       <c r="M460" s="4"/>
       <c r="N460" s="4"/>
@@ -6098,7 +6064,7 @@
       <c r="Q460" s="4"/>
       <c r="R460" s="4"/>
     </row>
-    <row r="461" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L461" s="5"/>
       <c r="M461" s="4"/>
       <c r="N461" s="4"/>
@@ -6107,7 +6073,7 @@
       <c r="Q461" s="4"/>
       <c r="R461" s="4"/>
     </row>
-    <row r="462" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L462" s="5"/>
       <c r="M462" s="4"/>
       <c r="N462" s="4"/>
@@ -6116,7 +6082,7 @@
       <c r="Q462" s="4"/>
       <c r="R462" s="4"/>
     </row>
-    <row r="463" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L463" s="5"/>
       <c r="M463" s="4"/>
       <c r="N463" s="4"/>
@@ -6125,7 +6091,7 @@
       <c r="Q463" s="4"/>
       <c r="R463" s="4"/>
     </row>
-    <row r="464" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L464" s="5"/>
       <c r="M464" s="4"/>
       <c r="N464" s="4"/>
@@ -6134,7 +6100,7 @@
       <c r="Q464" s="4"/>
       <c r="R464" s="4"/>
     </row>
-    <row r="465" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L465" s="5"/>
       <c r="M465" s="4"/>
       <c r="N465" s="4"/>
@@ -6143,7 +6109,7 @@
       <c r="Q465" s="4"/>
       <c r="R465" s="4"/>
     </row>
-    <row r="466" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L466" s="5"/>
       <c r="M466" s="4"/>
       <c r="N466" s="4"/>
@@ -6152,7 +6118,7 @@
       <c r="Q466" s="4"/>
       <c r="R466" s="4"/>
     </row>
-    <row r="467" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L467" s="5"/>
       <c r="M467" s="4"/>
       <c r="N467" s="4"/>
@@ -6161,7 +6127,7 @@
       <c r="Q467" s="4"/>
       <c r="R467" s="4"/>
     </row>
-    <row r="468" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L468" s="5"/>
       <c r="M468" s="4"/>
       <c r="N468" s="4"/>
@@ -6170,7 +6136,7 @@
       <c r="Q468" s="4"/>
       <c r="R468" s="4"/>
     </row>
-    <row r="469" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L469" s="5"/>
       <c r="M469" s="4"/>
       <c r="N469" s="4"/>
@@ -6179,7 +6145,7 @@
       <c r="Q469" s="4"/>
       <c r="R469" s="4"/>
     </row>
-    <row r="470" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L470" s="5"/>
       <c r="M470" s="4"/>
       <c r="N470" s="4"/>
@@ -6188,7 +6154,7 @@
       <c r="Q470" s="4"/>
       <c r="R470" s="4"/>
     </row>
-    <row r="471" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L471" s="5"/>
       <c r="M471" s="4"/>
       <c r="N471" s="4"/>
@@ -6197,7 +6163,7 @@
       <c r="Q471" s="4"/>
       <c r="R471" s="4"/>
     </row>
-    <row r="472" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L472" s="5"/>
       <c r="M472" s="4"/>
       <c r="N472" s="4"/>
@@ -6206,7 +6172,7 @@
       <c r="Q472" s="4"/>
       <c r="R472" s="4"/>
     </row>
-    <row r="473" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L473" s="5"/>
       <c r="M473" s="4"/>
       <c r="N473" s="4"/>
@@ -6215,7 +6181,7 @@
       <c r="Q473" s="4"/>
       <c r="R473" s="4"/>
     </row>
-    <row r="474" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L474" s="5"/>
       <c r="M474" s="4"/>
       <c r="N474" s="4"/>
@@ -6224,7 +6190,7 @@
       <c r="Q474" s="4"/>
       <c r="R474" s="4"/>
     </row>
-    <row r="475" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L475" s="5"/>
       <c r="M475" s="4"/>
       <c r="N475" s="4"/>
@@ -6233,7 +6199,7 @@
       <c r="Q475" s="4"/>
       <c r="R475" s="4"/>
     </row>
-    <row r="476" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L476" s="5"/>
       <c r="M476" s="4"/>
       <c r="N476" s="4"/>
@@ -6242,7 +6208,7 @@
       <c r="Q476" s="4"/>
       <c r="R476" s="4"/>
     </row>
-    <row r="477" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L477" s="5"/>
       <c r="M477" s="4"/>
       <c r="N477" s="4"/>
@@ -6251,7 +6217,7 @@
       <c r="Q477" s="4"/>
       <c r="R477" s="4"/>
     </row>
-    <row r="478" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L478" s="5"/>
       <c r="M478" s="4"/>
       <c r="N478" s="4"/>
@@ -6260,7 +6226,7 @@
       <c r="Q478" s="4"/>
       <c r="R478" s="4"/>
     </row>
-    <row r="479" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L479" s="5"/>
       <c r="M479" s="4"/>
       <c r="N479" s="4"/>
@@ -6269,7 +6235,7 @@
       <c r="Q479" s="4"/>
       <c r="R479" s="4"/>
     </row>
-    <row r="480" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L480" s="5"/>
       <c r="M480" s="4"/>
       <c r="N480" s="4"/>
@@ -6278,7 +6244,7 @@
       <c r="Q480" s="4"/>
       <c r="R480" s="4"/>
     </row>
-    <row r="481" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="481" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L481" s="5"/>
       <c r="M481" s="4"/>
       <c r="N481" s="4"/>
@@ -6287,7 +6253,7 @@
       <c r="Q481" s="4"/>
       <c r="R481" s="4"/>
     </row>
-    <row r="482" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L482" s="5"/>
       <c r="M482" s="4"/>
       <c r="N482" s="4"/>
@@ -6296,7 +6262,7 @@
       <c r="Q482" s="4"/>
       <c r="R482" s="4"/>
     </row>
-    <row r="483" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L483" s="5"/>
       <c r="M483" s="4"/>
       <c r="N483" s="4"/>
@@ -6305,7 +6271,7 @@
       <c r="Q483" s="4"/>
       <c r="R483" s="4"/>
     </row>
-    <row r="484" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L484" s="5"/>
       <c r="M484" s="4"/>
       <c r="N484" s="4"/>
@@ -6314,7 +6280,7 @@
       <c r="Q484" s="4"/>
       <c r="R484" s="4"/>
     </row>
-    <row r="485" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L485" s="5"/>
       <c r="M485" s="4"/>
       <c r="N485" s="4"/>
@@ -6323,7 +6289,7 @@
       <c r="Q485" s="4"/>
       <c r="R485" s="4"/>
     </row>
-    <row r="486" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L486" s="5"/>
       <c r="M486" s="4"/>
       <c r="N486" s="4"/>
@@ -6332,7 +6298,7 @@
       <c r="Q486" s="4"/>
       <c r="R486" s="4"/>
     </row>
-    <row r="487" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L487" s="5"/>
       <c r="M487" s="4"/>
       <c r="N487" s="4"/>
@@ -6341,7 +6307,7 @@
       <c r="Q487" s="4"/>
       <c r="R487" s="4"/>
     </row>
-    <row r="488" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L488" s="5"/>
       <c r="M488" s="4"/>
       <c r="N488" s="4"/>
@@ -6350,7 +6316,7 @@
       <c r="Q488" s="4"/>
       <c r="R488" s="4"/>
     </row>
-    <row r="489" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L489" s="5"/>
       <c r="M489" s="4"/>
       <c r="N489" s="4"/>
@@ -6359,7 +6325,7 @@
       <c r="Q489" s="4"/>
       <c r="R489" s="4"/>
     </row>
-    <row r="490" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L490" s="5"/>
       <c r="M490" s="4"/>
       <c r="N490" s="4"/>
@@ -6368,7 +6334,7 @@
       <c r="Q490" s="4"/>
       <c r="R490" s="4"/>
     </row>
-    <row r="491" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L491" s="5"/>
       <c r="M491" s="4"/>
       <c r="N491" s="4"/>
@@ -6377,7 +6343,7 @@
       <c r="Q491" s="4"/>
       <c r="R491" s="4"/>
     </row>
-    <row r="492" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L492" s="5"/>
       <c r="M492" s="4"/>
       <c r="N492" s="4"/>
@@ -6386,7 +6352,7 @@
       <c r="Q492" s="4"/>
       <c r="R492" s="4"/>
     </row>
-    <row r="493" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L493" s="5"/>
       <c r="M493" s="4"/>
       <c r="N493" s="4"/>
@@ -6395,7 +6361,7 @@
       <c r="Q493" s="4"/>
       <c r="R493" s="4"/>
     </row>
-    <row r="494" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L494" s="5"/>
       <c r="M494" s="4"/>
       <c r="N494" s="4"/>
@@ -6404,7 +6370,7 @@
       <c r="Q494" s="4"/>
       <c r="R494" s="4"/>
     </row>
-    <row r="495" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="495" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L495" s="5"/>
       <c r="M495" s="4"/>
       <c r="N495" s="4"/>
@@ -6413,7 +6379,7 @@
       <c r="Q495" s="4"/>
       <c r="R495" s="4"/>
     </row>
-    <row r="496" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L496" s="5"/>
       <c r="M496" s="4"/>
       <c r="N496" s="4"/>
@@ -6422,7 +6388,7 @@
       <c r="Q496" s="4"/>
       <c r="R496" s="4"/>
     </row>
-    <row r="497" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="497" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L497" s="5"/>
       <c r="M497" s="4"/>
       <c r="N497" s="4"/>
@@ -6431,7 +6397,7 @@
       <c r="Q497" s="4"/>
       <c r="R497" s="4"/>
     </row>
-    <row r="498" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="498" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L498" s="5"/>
       <c r="M498" s="4"/>
       <c r="N498" s="4"/>
@@ -6440,7 +6406,7 @@
       <c r="Q498" s="4"/>
       <c r="R498" s="4"/>
     </row>
-    <row r="499" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L499" s="5"/>
       <c r="M499" s="4"/>
       <c r="N499" s="4"/>
@@ -6449,7 +6415,7 @@
       <c r="Q499" s="4"/>
       <c r="R499" s="4"/>
     </row>
-    <row r="500" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L500" s="5"/>
       <c r="M500" s="4"/>
       <c r="N500" s="4"/>
@@ -6458,7 +6424,7 @@
       <c r="Q500" s="4"/>
       <c r="R500" s="4"/>
     </row>
-    <row r="501" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L501" s="5"/>
       <c r="M501" s="4"/>
       <c r="N501" s="4"/>
@@ -6467,7 +6433,7 @@
       <c r="Q501" s="4"/>
       <c r="R501" s="4"/>
     </row>
-    <row r="502" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L502" s="5"/>
       <c r="M502" s="4"/>
       <c r="N502" s="4"/>
@@ -6476,7 +6442,7 @@
       <c r="Q502" s="4"/>
       <c r="R502" s="4"/>
     </row>
-    <row r="503" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L503" s="5"/>
       <c r="M503" s="4"/>
       <c r="N503" s="4"/>
@@ -6485,7 +6451,7 @@
       <c r="Q503" s="4"/>
       <c r="R503" s="4"/>
     </row>
-    <row r="504" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="504" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L504" s="5"/>
       <c r="M504" s="4"/>
       <c r="N504" s="4"/>
@@ -6494,7 +6460,7 @@
       <c r="Q504" s="4"/>
       <c r="R504" s="4"/>
     </row>
-    <row r="505" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L505" s="5"/>
       <c r="M505" s="4"/>
       <c r="N505" s="4"/>
@@ -6503,7 +6469,7 @@
       <c r="Q505" s="4"/>
       <c r="R505" s="4"/>
     </row>
-    <row r="506" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L506" s="5"/>
       <c r="M506" s="4"/>
       <c r="N506" s="4"/>
@@ -6512,7 +6478,7 @@
       <c r="Q506" s="4"/>
       <c r="R506" s="4"/>
     </row>
-    <row r="507" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="507" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L507" s="5"/>
       <c r="M507" s="4"/>
       <c r="N507" s="4"/>
@@ -6521,7 +6487,7 @@
       <c r="Q507" s="4"/>
       <c r="R507" s="4"/>
     </row>
-    <row r="508" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L508" s="5"/>
       <c r="M508" s="4"/>
       <c r="N508" s="4"/>
@@ -6530,7 +6496,7 @@
       <c r="Q508" s="4"/>
       <c r="R508" s="4"/>
     </row>
-    <row r="509" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="509" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L509" s="5"/>
       <c r="M509" s="4"/>
       <c r="N509" s="4"/>
@@ -6539,7 +6505,7 @@
       <c r="Q509" s="4"/>
       <c r="R509" s="4"/>
     </row>
-    <row r="510" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L510" s="5"/>
       <c r="M510" s="4"/>
       <c r="N510" s="4"/>
@@ -6548,7 +6514,7 @@
       <c r="Q510" s="4"/>
       <c r="R510" s="4"/>
     </row>
-    <row r="511" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="511" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L511" s="5"/>
       <c r="M511" s="4"/>
       <c r="N511" s="4"/>
@@ -6557,7 +6523,7 @@
       <c r="Q511" s="4"/>
       <c r="R511" s="4"/>
     </row>
-    <row r="512" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="512" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L512" s="5"/>
       <c r="M512" s="4"/>
       <c r="N512" s="4"/>
@@ -6566,7 +6532,7 @@
       <c r="Q512" s="4"/>
       <c r="R512" s="4"/>
     </row>
-    <row r="513" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="513" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L513" s="5"/>
       <c r="M513" s="4"/>
       <c r="N513" s="4"/>
@@ -6575,7 +6541,7 @@
       <c r="Q513" s="4"/>
       <c r="R513" s="4"/>
     </row>
-    <row r="514" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="514" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L514" s="5"/>
       <c r="M514" s="4"/>
       <c r="N514" s="4"/>
@@ -6584,7 +6550,7 @@
       <c r="Q514" s="4"/>
       <c r="R514" s="4"/>
     </row>
-    <row r="515" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="515" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L515" s="5"/>
       <c r="M515" s="4"/>
       <c r="N515" s="4"/>
@@ -6593,7 +6559,7 @@
       <c r="Q515" s="4"/>
       <c r="R515" s="4"/>
     </row>
-    <row r="516" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="516" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L516" s="5"/>
       <c r="M516" s="4"/>
       <c r="N516" s="4"/>
@@ -6602,7 +6568,7 @@
       <c r="Q516" s="4"/>
       <c r="R516" s="4"/>
     </row>
-    <row r="517" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="517" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L517" s="5"/>
       <c r="M517" s="4"/>
       <c r="N517" s="4"/>
@@ -6611,7 +6577,7 @@
       <c r="Q517" s="4"/>
       <c r="R517" s="4"/>
     </row>
-    <row r="518" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="518" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L518" s="5"/>
       <c r="M518" s="4"/>
       <c r="N518" s="4"/>
@@ -6620,7 +6586,7 @@
       <c r="Q518" s="4"/>
       <c r="R518" s="4"/>
     </row>
-    <row r="519" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="519" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L519" s="5"/>
       <c r="M519" s="4"/>
       <c r="N519" s="4"/>
@@ -6629,7 +6595,7 @@
       <c r="Q519" s="4"/>
       <c r="R519" s="4"/>
     </row>
-    <row r="520" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="520" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L520" s="5"/>
       <c r="M520" s="4"/>
       <c r="N520" s="4"/>
@@ -6638,7 +6604,7 @@
       <c r="Q520" s="4"/>
       <c r="R520" s="4"/>
     </row>
-    <row r="521" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="521" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L521" s="5"/>
       <c r="M521" s="4"/>
       <c r="N521" s="4"/>
@@ -6647,7 +6613,7 @@
       <c r="Q521" s="4"/>
       <c r="R521" s="4"/>
     </row>
-    <row r="522" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="522" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L522" s="5"/>
       <c r="M522" s="4"/>
       <c r="N522" s="4"/>
@@ -6656,7 +6622,7 @@
       <c r="Q522" s="4"/>
       <c r="R522" s="4"/>
     </row>
-    <row r="523" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="523" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L523" s="5"/>
       <c r="M523" s="4"/>
       <c r="N523" s="4"/>
@@ -6665,7 +6631,7 @@
       <c r="Q523" s="4"/>
       <c r="R523" s="4"/>
     </row>
-    <row r="524" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="524" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L524" s="5"/>
       <c r="M524" s="4"/>
       <c r="N524" s="4"/>
@@ -6674,7 +6640,7 @@
       <c r="Q524" s="4"/>
       <c r="R524" s="4"/>
     </row>
-    <row r="525" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="525" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L525" s="5"/>
       <c r="M525" s="4"/>
       <c r="N525" s="4"/>
@@ -6683,7 +6649,7 @@
       <c r="Q525" s="4"/>
       <c r="R525" s="4"/>
     </row>
-    <row r="526" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="526" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L526" s="5"/>
       <c r="M526" s="4"/>
       <c r="N526" s="4"/>
@@ -6692,7 +6658,7 @@
       <c r="Q526" s="4"/>
       <c r="R526" s="4"/>
     </row>
-    <row r="527" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="527" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L527" s="5"/>
       <c r="M527" s="4"/>
       <c r="N527" s="4"/>
@@ -6701,7 +6667,7 @@
       <c r="Q527" s="4"/>
       <c r="R527" s="4"/>
     </row>
-    <row r="528" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="528" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L528" s="5"/>
       <c r="M528" s="4"/>
       <c r="N528" s="4"/>
@@ -6710,7 +6676,7 @@
       <c r="Q528" s="4"/>
       <c r="R528" s="4"/>
     </row>
-    <row r="529" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="529" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L529" s="5"/>
       <c r="M529" s="4"/>
       <c r="N529" s="4"/>
@@ -6719,7 +6685,7 @@
       <c r="Q529" s="4"/>
       <c r="R529" s="4"/>
     </row>
-    <row r="530" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="530" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L530" s="5"/>
       <c r="M530" s="4"/>
       <c r="N530" s="4"/>
@@ -6728,7 +6694,7 @@
       <c r="Q530" s="4"/>
       <c r="R530" s="4"/>
     </row>
-    <row r="531" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="531" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L531" s="5"/>
       <c r="M531" s="4"/>
       <c r="N531" s="4"/>
@@ -6737,7 +6703,7 @@
       <c r="Q531" s="4"/>
       <c r="R531" s="4"/>
     </row>
-    <row r="532" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="532" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L532" s="5"/>
       <c r="M532" s="4"/>
       <c r="N532" s="4"/>
@@ -6746,7 +6712,7 @@
       <c r="Q532" s="4"/>
       <c r="R532" s="4"/>
     </row>
-    <row r="533" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="533" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L533" s="5"/>
       <c r="M533" s="4"/>
       <c r="N533" s="4"/>
@@ -6755,7 +6721,7 @@
       <c r="Q533" s="4"/>
       <c r="R533" s="4"/>
     </row>
-    <row r="534" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="534" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L534" s="5"/>
       <c r="M534" s="4"/>
       <c r="N534" s="4"/>
@@ -6764,7 +6730,7 @@
       <c r="Q534" s="4"/>
       <c r="R534" s="4"/>
     </row>
-    <row r="535" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="535" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L535" s="5"/>
       <c r="M535" s="4"/>
       <c r="N535" s="4"/>
@@ -6773,7 +6739,7 @@
       <c r="Q535" s="4"/>
       <c r="R535" s="4"/>
     </row>
-    <row r="536" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="536" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L536" s="5"/>
       <c r="M536" s="4"/>
       <c r="N536" s="4"/>
@@ -6782,7 +6748,7 @@
       <c r="Q536" s="4"/>
       <c r="R536" s="4"/>
     </row>
-    <row r="537" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="537" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L537" s="5"/>
       <c r="M537" s="4"/>
       <c r="N537" s="4"/>
@@ -6791,7 +6757,7 @@
       <c r="Q537" s="4"/>
       <c r="R537" s="4"/>
     </row>
-    <row r="538" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="538" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L538" s="5"/>
       <c r="M538" s="4"/>
       <c r="N538" s="4"/>
@@ -6800,7 +6766,7 @@
       <c r="Q538" s="4"/>
       <c r="R538" s="4"/>
     </row>
-    <row r="539" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="539" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L539" s="5"/>
       <c r="M539" s="4"/>
       <c r="N539" s="4"/>
@@ -6809,7 +6775,7 @@
       <c r="Q539" s="4"/>
       <c r="R539" s="4"/>
     </row>
-    <row r="540" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="540" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L540" s="5"/>
       <c r="M540" s="4"/>
       <c r="N540" s="4"/>
@@ -6818,7 +6784,7 @@
       <c r="Q540" s="4"/>
       <c r="R540" s="4"/>
     </row>
-    <row r="541" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="541" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L541" s="5"/>
       <c r="M541" s="4"/>
       <c r="N541" s="4"/>
@@ -6827,7 +6793,7 @@
       <c r="Q541" s="4"/>
       <c r="R541" s="4"/>
     </row>
-    <row r="542" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="542" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L542" s="5"/>
       <c r="M542" s="4"/>
       <c r="N542" s="4"/>
@@ -6836,7 +6802,7 @@
       <c r="Q542" s="4"/>
       <c r="R542" s="4"/>
     </row>
-    <row r="543" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="543" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L543" s="5"/>
       <c r="M543" s="4"/>
       <c r="N543" s="4"/>
@@ -6845,7 +6811,7 @@
       <c r="Q543" s="4"/>
       <c r="R543" s="4"/>
     </row>
-    <row r="544" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="544" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L544" s="5"/>
       <c r="M544" s="4"/>
       <c r="N544" s="4"/>
@@ -6854,7 +6820,7 @@
       <c r="Q544" s="4"/>
       <c r="R544" s="4"/>
     </row>
-    <row r="545" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="545" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L545" s="5"/>
       <c r="M545" s="4"/>
       <c r="N545" s="4"/>
@@ -6863,7 +6829,7 @@
       <c r="Q545" s="4"/>
       <c r="R545" s="4"/>
     </row>
-    <row r="546" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="546" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L546" s="5"/>
       <c r="M546" s="4"/>
       <c r="N546" s="4"/>
@@ -6872,7 +6838,7 @@
       <c r="Q546" s="4"/>
       <c r="R546" s="4"/>
     </row>
-    <row r="547" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="547" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L547" s="5"/>
       <c r="M547" s="4"/>
       <c r="N547" s="4"/>
@@ -6881,7 +6847,7 @@
       <c r="Q547" s="4"/>
       <c r="R547" s="4"/>
     </row>
-    <row r="548" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="548" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L548" s="5"/>
       <c r="M548" s="4"/>
       <c r="N548" s="4"/>
@@ -6890,7 +6856,7 @@
       <c r="Q548" s="4"/>
       <c r="R548" s="4"/>
     </row>
-    <row r="549" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="549" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L549" s="5"/>
       <c r="M549" s="4"/>
       <c r="N549" s="4"/>
@@ -6899,7 +6865,7 @@
       <c r="Q549" s="4"/>
       <c r="R549" s="4"/>
     </row>
-    <row r="550" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="550" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L550" s="5"/>
       <c r="M550" s="4"/>
       <c r="N550" s="4"/>
@@ -6908,7 +6874,7 @@
       <c r="Q550" s="4"/>
       <c r="R550" s="4"/>
     </row>
-    <row r="551" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="551" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L551" s="5"/>
       <c r="M551" s="4"/>
       <c r="N551" s="4"/>
@@ -6917,7 +6883,7 @@
       <c r="Q551" s="4"/>
       <c r="R551" s="4"/>
     </row>
-    <row r="552" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="552" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L552" s="5"/>
       <c r="M552" s="4"/>
       <c r="N552" s="4"/>
@@ -6926,7 +6892,7 @@
       <c r="Q552" s="4"/>
       <c r="R552" s="4"/>
     </row>
-    <row r="553" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="553" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L553" s="5"/>
       <c r="M553" s="4"/>
       <c r="N553" s="4"/>
@@ -6935,7 +6901,7 @@
       <c r="Q553" s="4"/>
       <c r="R553" s="4"/>
     </row>
-    <row r="554" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="554" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L554" s="5"/>
       <c r="M554" s="4"/>
       <c r="N554" s="4"/>
@@ -6944,7 +6910,7 @@
       <c r="Q554" s="4"/>
       <c r="R554" s="4"/>
     </row>
-    <row r="555" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="555" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L555" s="5"/>
       <c r="M555" s="4"/>
       <c r="N555" s="4"/>
@@ -6953,7 +6919,7 @@
       <c r="Q555" s="4"/>
       <c r="R555" s="4"/>
     </row>
-    <row r="556" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="556" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L556" s="5"/>
       <c r="M556" s="4"/>
       <c r="N556" s="4"/>
@@ -6962,7 +6928,7 @@
       <c r="Q556" s="4"/>
       <c r="R556" s="4"/>
     </row>
-    <row r="557" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="557" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L557" s="5"/>
       <c r="M557" s="4"/>
       <c r="N557" s="4"/>
@@ -6971,7 +6937,7 @@
       <c r="Q557" s="4"/>
       <c r="R557" s="4"/>
     </row>
-    <row r="558" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="558" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L558" s="5"/>
       <c r="M558" s="4"/>
       <c r="N558" s="4"/>
@@ -6980,7 +6946,7 @@
       <c r="Q558" s="4"/>
       <c r="R558" s="4"/>
     </row>
-    <row r="559" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="559" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L559" s="5"/>
       <c r="M559" s="4"/>
       <c r="N559" s="4"/>
@@ -6989,7 +6955,7 @@
       <c r="Q559" s="4"/>
       <c r="R559" s="4"/>
     </row>
-    <row r="560" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="560" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L560" s="5"/>
       <c r="M560" s="4"/>
       <c r="N560" s="4"/>
@@ -6998,7 +6964,7 @@
       <c r="Q560" s="4"/>
       <c r="R560" s="4"/>
     </row>
-    <row r="561" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="561" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L561" s="5"/>
       <c r="M561" s="4"/>
       <c r="N561" s="4"/>
@@ -7007,7 +6973,7 @@
       <c r="Q561" s="4"/>
       <c r="R561" s="4"/>
     </row>
-    <row r="562" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="562" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L562" s="5"/>
       <c r="M562" s="4"/>
       <c r="N562" s="4"/>
@@ -7016,7 +6982,7 @@
       <c r="Q562" s="4"/>
       <c r="R562" s="4"/>
     </row>
-    <row r="563" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="563" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L563" s="5"/>
       <c r="M563" s="4"/>
       <c r="N563" s="4"/>
@@ -7025,7 +6991,7 @@
       <c r="Q563" s="4"/>
       <c r="R563" s="4"/>
     </row>
-    <row r="564" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="564" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L564" s="5"/>
       <c r="M564" s="4"/>
       <c r="N564" s="4"/>
@@ -7034,7 +7000,7 @@
       <c r="Q564" s="4"/>
       <c r="R564" s="4"/>
     </row>
-    <row r="565" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="565" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L565" s="5"/>
       <c r="M565" s="4"/>
       <c r="N565" s="4"/>
@@ -7043,7 +7009,7 @@
       <c r="Q565" s="4"/>
       <c r="R565" s="4"/>
     </row>
-    <row r="566" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="566" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L566" s="5"/>
       <c r="M566" s="4"/>
       <c r="N566" s="4"/>
@@ -7052,7 +7018,7 @@
       <c r="Q566" s="4"/>
       <c r="R566" s="4"/>
     </row>
-    <row r="567" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="567" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L567" s="5"/>
       <c r="M567" s="4"/>
       <c r="N567" s="4"/>
@@ -7061,7 +7027,7 @@
       <c r="Q567" s="4"/>
       <c r="R567" s="4"/>
     </row>
-    <row r="568" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="568" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L568" s="5"/>
       <c r="M568" s="4"/>
       <c r="N568" s="4"/>
@@ -7070,7 +7036,7 @@
       <c r="Q568" s="4"/>
       <c r="R568" s="4"/>
     </row>
-    <row r="569" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="569" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L569" s="5"/>
       <c r="M569" s="4"/>
       <c r="N569" s="4"/>
@@ -7079,7 +7045,7 @@
       <c r="Q569" s="4"/>
       <c r="R569" s="4"/>
     </row>
-    <row r="570" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="570" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L570" s="5"/>
       <c r="M570" s="4"/>
       <c r="N570" s="4"/>
@@ -7088,7 +7054,7 @@
       <c r="Q570" s="4"/>
       <c r="R570" s="4"/>
     </row>
-    <row r="571" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="571" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L571" s="5"/>
       <c r="M571" s="4"/>
       <c r="N571" s="4"/>
@@ -7097,7 +7063,7 @@
       <c r="Q571" s="4"/>
       <c r="R571" s="4"/>
     </row>
-    <row r="572" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="572" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L572" s="5"/>
       <c r="M572" s="4"/>
       <c r="N572" s="4"/>
@@ -7106,7 +7072,7 @@
       <c r="Q572" s="4"/>
       <c r="R572" s="4"/>
     </row>
-    <row r="573" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="573" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L573" s="5"/>
       <c r="M573" s="4"/>
       <c r="N573" s="4"/>
@@ -7115,7 +7081,7 @@
       <c r="Q573" s="4"/>
       <c r="R573" s="4"/>
     </row>
-    <row r="574" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="574" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L574" s="5"/>
       <c r="M574" s="4"/>
       <c r="N574" s="4"/>
@@ -7124,7 +7090,7 @@
       <c r="Q574" s="4"/>
       <c r="R574" s="4"/>
     </row>
-    <row r="575" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="575" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L575" s="5"/>
       <c r="M575" s="4"/>
       <c r="N575" s="4"/>
@@ -7133,7 +7099,7 @@
       <c r="Q575" s="4"/>
       <c r="R575" s="4"/>
     </row>
-    <row r="576" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="576" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L576" s="5"/>
       <c r="M576" s="4"/>
       <c r="N576" s="4"/>
@@ -7142,7 +7108,7 @@
       <c r="Q576" s="4"/>
       <c r="R576" s="4"/>
     </row>
-    <row r="577" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="577" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L577" s="5"/>
       <c r="M577" s="4"/>
       <c r="N577" s="4"/>
@@ -7151,7 +7117,7 @@
       <c r="Q577" s="4"/>
       <c r="R577" s="4"/>
     </row>
-    <row r="578" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="578" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L578" s="5"/>
       <c r="M578" s="4"/>
       <c r="N578" s="4"/>
@@ -7160,7 +7126,7 @@
       <c r="Q578" s="4"/>
       <c r="R578" s="4"/>
     </row>
-    <row r="579" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="579" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L579" s="5"/>
       <c r="M579" s="4"/>
       <c r="N579" s="4"/>
@@ -7169,7 +7135,7 @@
       <c r="Q579" s="4"/>
       <c r="R579" s="4"/>
     </row>
-    <row r="580" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="580" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L580" s="5"/>
       <c r="M580" s="4"/>
       <c r="N580" s="4"/>
@@ -7178,7 +7144,7 @@
       <c r="Q580" s="4"/>
       <c r="R580" s="4"/>
     </row>
-    <row r="581" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="581" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L581" s="5"/>
       <c r="M581" s="4"/>
       <c r="N581" s="4"/>
@@ -7187,7 +7153,7 @@
       <c r="Q581" s="4"/>
       <c r="R581" s="4"/>
     </row>
-    <row r="582" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="582" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L582" s="5"/>
       <c r="M582" s="4"/>
       <c r="N582" s="4"/>
@@ -7196,7 +7162,7 @@
       <c r="Q582" s="4"/>
       <c r="R582" s="4"/>
     </row>
-    <row r="583" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="583" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L583" s="5"/>
       <c r="M583" s="4"/>
       <c r="N583" s="4"/>
@@ -7205,7 +7171,7 @@
       <c r="Q583" s="4"/>
       <c r="R583" s="4"/>
     </row>
-    <row r="584" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="584" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L584" s="5"/>
       <c r="M584" s="4"/>
       <c r="N584" s="4"/>
@@ -7214,7 +7180,7 @@
       <c r="Q584" s="4"/>
       <c r="R584" s="4"/>
     </row>
-    <row r="585" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="585" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L585" s="5"/>
       <c r="M585" s="4"/>
       <c r="N585" s="4"/>
@@ -7223,7 +7189,7 @@
       <c r="Q585" s="4"/>
       <c r="R585" s="4"/>
     </row>
-    <row r="586" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="586" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L586" s="5"/>
       <c r="M586" s="4"/>
       <c r="N586" s="4"/>
@@ -7232,7 +7198,7 @@
       <c r="Q586" s="4"/>
       <c r="R586" s="4"/>
     </row>
-    <row r="587" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="587" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L587" s="5"/>
       <c r="M587" s="4"/>
       <c r="N587" s="4"/>
@@ -7241,7 +7207,7 @@
       <c r="Q587" s="4"/>
       <c r="R587" s="4"/>
     </row>
-    <row r="588" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="588" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L588" s="5"/>
       <c r="M588" s="4"/>
       <c r="N588" s="4"/>
@@ -7250,7 +7216,7 @@
       <c r="Q588" s="4"/>
       <c r="R588" s="4"/>
     </row>
-    <row r="589" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="589" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L589" s="5"/>
       <c r="M589" s="4"/>
       <c r="N589" s="4"/>
@@ -7259,7 +7225,7 @@
       <c r="Q589" s="4"/>
       <c r="R589" s="4"/>
     </row>
-    <row r="590" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="590" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L590" s="5"/>
       <c r="M590" s="4"/>
       <c r="N590" s="4"/>
@@ -7268,7 +7234,7 @@
       <c r="Q590" s="4"/>
       <c r="R590" s="4"/>
     </row>
-    <row r="591" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="591" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L591" s="5"/>
       <c r="M591" s="4"/>
       <c r="N591" s="4"/>
@@ -7277,7 +7243,7 @@
       <c r="Q591" s="4"/>
       <c r="R591" s="4"/>
     </row>
-    <row r="592" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="592" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L592" s="5"/>
       <c r="M592" s="4"/>
       <c r="N592" s="4"/>
@@ -7286,7 +7252,7 @@
       <c r="Q592" s="4"/>
       <c r="R592" s="4"/>
     </row>
-    <row r="593" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="593" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L593" s="5"/>
       <c r="M593" s="4"/>
       <c r="N593" s="4"/>
@@ -7295,7 +7261,7 @@
       <c r="Q593" s="4"/>
       <c r="R593" s="4"/>
     </row>
-    <row r="594" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="594" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L594" s="5"/>
       <c r="M594" s="4"/>
       <c r="N594" s="4"/>
@@ -7304,7 +7270,7 @@
       <c r="Q594" s="4"/>
       <c r="R594" s="4"/>
     </row>
-    <row r="595" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="595" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L595" s="5"/>
       <c r="M595" s="4"/>
       <c r="N595" s="4"/>
@@ -7313,7 +7279,7 @@
       <c r="Q595" s="4"/>
       <c r="R595" s="4"/>
     </row>
-    <row r="596" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="596" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L596" s="5"/>
       <c r="M596" s="4"/>
       <c r="N596" s="4"/>
@@ -7322,7 +7288,7 @@
       <c r="Q596" s="4"/>
       <c r="R596" s="4"/>
     </row>
-    <row r="597" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="597" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L597" s="5"/>
       <c r="M597" s="4"/>
       <c r="N597" s="4"/>
@@ -7331,7 +7297,7 @@
       <c r="Q597" s="4"/>
       <c r="R597" s="4"/>
     </row>
-    <row r="598" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="598" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L598" s="5"/>
       <c r="M598" s="4"/>
       <c r="N598" s="4"/>
@@ -7340,7 +7306,7 @@
       <c r="Q598" s="4"/>
       <c r="R598" s="4"/>
     </row>
-    <row r="599" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="599" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L599" s="5"/>
       <c r="M599" s="4"/>
       <c r="N599" s="4"/>
@@ -7349,7 +7315,7 @@
       <c r="Q599" s="4"/>
       <c r="R599" s="4"/>
     </row>
-    <row r="600" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="600" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L600" s="5"/>
       <c r="M600" s="4"/>
       <c r="N600" s="4"/>
@@ -7358,7 +7324,7 @@
       <c r="Q600" s="4"/>
       <c r="R600" s="4"/>
     </row>
-    <row r="601" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="601" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L601" s="5"/>
       <c r="M601" s="4"/>
       <c r="N601" s="4"/>
@@ -7367,7 +7333,7 @@
       <c r="Q601" s="4"/>
       <c r="R601" s="4"/>
     </row>
-    <row r="602" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="602" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L602" s="5"/>
       <c r="M602" s="4"/>
       <c r="N602" s="4"/>
@@ -7376,7 +7342,7 @@
       <c r="Q602" s="4"/>
       <c r="R602" s="4"/>
     </row>
-    <row r="603" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="603" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L603" s="5"/>
       <c r="M603" s="4"/>
       <c r="N603" s="4"/>
@@ -7385,7 +7351,7 @@
       <c r="Q603" s="4"/>
       <c r="R603" s="4"/>
     </row>
-    <row r="604" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="604" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L604" s="5"/>
       <c r="M604" s="4"/>
       <c r="N604" s="4"/>
@@ -7394,7 +7360,7 @@
       <c r="Q604" s="4"/>
       <c r="R604" s="4"/>
     </row>
-    <row r="605" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="605" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L605" s="5"/>
       <c r="M605" s="4"/>
       <c r="N605" s="4"/>
@@ -7403,7 +7369,7 @@
       <c r="Q605" s="4"/>
       <c r="R605" s="4"/>
     </row>
-    <row r="606" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="606" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L606" s="5"/>
       <c r="M606" s="4"/>
       <c r="N606" s="4"/>
@@ -7412,7 +7378,7 @@
       <c r="Q606" s="4"/>
       <c r="R606" s="4"/>
     </row>
-    <row r="607" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="607" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L607" s="5"/>
       <c r="M607" s="4"/>
       <c r="N607" s="4"/>
@@ -7421,7 +7387,7 @@
       <c r="Q607" s="4"/>
       <c r="R607" s="4"/>
     </row>
-    <row r="608" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="608" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L608" s="5"/>
       <c r="M608" s="4"/>
       <c r="N608" s="4"/>
@@ -7430,7 +7396,7 @@
       <c r="Q608" s="4"/>
       <c r="R608" s="4"/>
     </row>
-    <row r="609" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="609" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L609" s="5"/>
       <c r="M609" s="4"/>
       <c r="N609" s="4"/>
@@ -7439,7 +7405,7 @@
       <c r="Q609" s="4"/>
       <c r="R609" s="4"/>
     </row>
-    <row r="610" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="610" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L610" s="5"/>
       <c r="M610" s="4"/>
       <c r="N610" s="4"/>
@@ -7448,7 +7414,7 @@
       <c r="Q610" s="4"/>
       <c r="R610" s="4"/>
     </row>
-    <row r="611" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="611" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L611" s="5"/>
       <c r="M611" s="4"/>
       <c r="N611" s="4"/>
@@ -7457,7 +7423,7 @@
       <c r="Q611" s="4"/>
       <c r="R611" s="4"/>
     </row>
-    <row r="612" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L612" s="5"/>
       <c r="M612" s="4"/>
       <c r="N612" s="4"/>
@@ -7466,7 +7432,7 @@
       <c r="Q612" s="4"/>
       <c r="R612" s="4"/>
     </row>
-    <row r="613" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L613" s="5"/>
       <c r="M613" s="4"/>
       <c r="N613" s="4"/>
@@ -7475,7 +7441,7 @@
       <c r="Q613" s="4"/>
       <c r="R613" s="4"/>
     </row>
-    <row r="614" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L614" s="5"/>
       <c r="M614" s="4"/>
       <c r="N614" s="4"/>
@@ -7484,7 +7450,7 @@
       <c r="Q614" s="4"/>
       <c r="R614" s="4"/>
     </row>
-    <row r="615" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="615" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L615" s="5"/>
       <c r="M615" s="4"/>
       <c r="N615" s="4"/>
@@ -7493,7 +7459,7 @@
       <c r="Q615" s="4"/>
       <c r="R615" s="4"/>
     </row>
-    <row r="616" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="616" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L616" s="5"/>
       <c r="M616" s="4"/>
       <c r="N616" s="4"/>
@@ -7502,7 +7468,7 @@
       <c r="Q616" s="4"/>
       <c r="R616" s="4"/>
     </row>
-    <row r="617" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="617" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L617" s="5"/>
       <c r="M617" s="4"/>
       <c r="N617" s="4"/>
@@ -7511,7 +7477,7 @@
       <c r="Q617" s="4"/>
       <c r="R617" s="4"/>
     </row>
-    <row r="618" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L618" s="5"/>
       <c r="M618" s="4"/>
       <c r="N618" s="4"/>
@@ -7520,7 +7486,7 @@
       <c r="Q618" s="4"/>
       <c r="R618" s="4"/>
     </row>
-    <row r="619" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L619" s="5"/>
       <c r="M619" s="4"/>
       <c r="N619" s="4"/>
@@ -7529,7 +7495,7 @@
       <c r="Q619" s="4"/>
       <c r="R619" s="4"/>
     </row>
-    <row r="620" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L620" s="5"/>
       <c r="M620" s="4"/>
       <c r="N620" s="4"/>
@@ -7538,7 +7504,7 @@
       <c r="Q620" s="4"/>
       <c r="R620" s="4"/>
     </row>
-    <row r="621" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="621" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L621" s="5"/>
       <c r="M621" s="4"/>
       <c r="N621" s="4"/>
@@ -7547,7 +7513,7 @@
       <c r="Q621" s="4"/>
       <c r="R621" s="4"/>
     </row>
-    <row r="622" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="622" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L622" s="5"/>
       <c r="M622" s="4"/>
       <c r="N622" s="4"/>
@@ -7556,7 +7522,7 @@
       <c r="Q622" s="4"/>
       <c r="R622" s="4"/>
     </row>
-    <row r="623" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L623" s="5"/>
       <c r="M623" s="4"/>
       <c r="N623" s="4"/>
@@ -7565,7 +7531,7 @@
       <c r="Q623" s="4"/>
       <c r="R623" s="4"/>
     </row>
-    <row r="624" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L624" s="5"/>
       <c r="M624" s="4"/>
       <c r="N624" s="4"/>
@@ -7574,7 +7540,7 @@
       <c r="Q624" s="4"/>
       <c r="R624" s="4"/>
     </row>
-    <row r="625" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="625" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L625" s="5"/>
       <c r="M625" s="4"/>
       <c r="N625" s="4"/>
@@ -7583,7 +7549,7 @@
       <c r="Q625" s="4"/>
       <c r="R625" s="4"/>
     </row>
-    <row r="626" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="626" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L626" s="5"/>
       <c r="M626" s="4"/>
       <c r="N626" s="4"/>
@@ -7592,7 +7558,7 @@
       <c r="Q626" s="4"/>
       <c r="R626" s="4"/>
     </row>
-    <row r="627" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="627" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L627" s="5"/>
       <c r="M627" s="4"/>
       <c r="N627" s="4"/>
@@ -7601,435 +7567,435 @@
       <c r="Q627" s="4"/>
       <c r="R627" s="4"/>
     </row>
-    <row r="628" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="628" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L628" s="5"/>
       <c r="M628" s="4"/>
       <c r="N628" s="4"/>
       <c r="O628" s="5"/>
       <c r="P628" s="5"/>
     </row>
-    <row r="629" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="629" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L629" s="5"/>
       <c r="M629" s="4"/>
       <c r="N629" s="4"/>
       <c r="O629" s="5"/>
       <c r="P629" s="5"/>
     </row>
-    <row r="630" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="630" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L630" s="5"/>
       <c r="M630" s="4"/>
       <c r="N630" s="4"/>
       <c r="O630" s="5"/>
       <c r="P630" s="5"/>
     </row>
-    <row r="631" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="631" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L631" s="5"/>
       <c r="M631" s="4"/>
       <c r="N631" s="4"/>
       <c r="O631" s="5"/>
       <c r="P631" s="5"/>
     </row>
-    <row r="632" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="632" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L632" s="5"/>
       <c r="M632" s="4"/>
       <c r="N632" s="4"/>
       <c r="O632" s="5"/>
       <c r="P632" s="5"/>
     </row>
-    <row r="633" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="633" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L633" s="5"/>
       <c r="M633" s="4"/>
       <c r="N633" s="4"/>
       <c r="O633" s="5"/>
       <c r="P633" s="5"/>
     </row>
-    <row r="634" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="634" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L634" s="5"/>
       <c r="M634" s="4"/>
       <c r="N634" s="4"/>
       <c r="O634" s="5"/>
       <c r="P634" s="5"/>
     </row>
-    <row r="635" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="635" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L635" s="5"/>
       <c r="M635" s="4"/>
       <c r="N635" s="4"/>
       <c r="O635" s="5"/>
       <c r="P635" s="5"/>
     </row>
-    <row r="636" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="636" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L636" s="5"/>
       <c r="M636" s="4"/>
       <c r="N636" s="4"/>
       <c r="O636" s="5"/>
       <c r="P636" s="5"/>
     </row>
-    <row r="637" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="637" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L637" s="5"/>
       <c r="M637" s="4"/>
       <c r="N637" s="4"/>
       <c r="O637" s="5"/>
       <c r="P637" s="5"/>
     </row>
-    <row r="638" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="638" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L638" s="5"/>
       <c r="M638" s="4"/>
       <c r="N638" s="4"/>
       <c r="O638" s="5"/>
       <c r="P638" s="5"/>
     </row>
-    <row r="639" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="639" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L639" s="5"/>
       <c r="M639" s="4"/>
       <c r="N639" s="4"/>
       <c r="O639" s="5"/>
       <c r="P639" s="5"/>
     </row>
-    <row r="640" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="640" spans="12:18" x14ac:dyDescent="0.15">
       <c r="L640" s="5"/>
       <c r="M640" s="4"/>
       <c r="N640" s="4"/>
       <c r="O640" s="5"/>
       <c r="P640" s="5"/>
     </row>
-    <row r="641" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="641" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L641" s="5"/>
       <c r="M641" s="4"/>
       <c r="N641" s="4"/>
       <c r="O641" s="5"/>
       <c r="P641" s="5"/>
     </row>
-    <row r="642" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="642" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L642" s="5"/>
       <c r="M642" s="4"/>
       <c r="N642" s="4"/>
       <c r="O642" s="5"/>
       <c r="P642" s="5"/>
     </row>
-    <row r="643" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="643" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L643" s="5"/>
       <c r="M643" s="4"/>
       <c r="N643" s="4"/>
       <c r="O643" s="5"/>
       <c r="P643" s="5"/>
     </row>
-    <row r="644" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="644" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L644" s="5"/>
       <c r="M644" s="4"/>
       <c r="N644" s="4"/>
       <c r="O644" s="5"/>
       <c r="P644" s="5"/>
     </row>
-    <row r="645" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="645" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L645" s="5"/>
       <c r="M645" s="4"/>
       <c r="N645" s="4"/>
       <c r="O645" s="5"/>
       <c r="P645" s="5"/>
     </row>
-    <row r="646" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="646" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L646" s="5"/>
       <c r="M646" s="4"/>
       <c r="N646" s="4"/>
       <c r="O646" s="5"/>
       <c r="P646" s="5"/>
     </row>
-    <row r="647" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="647" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L647" s="5"/>
       <c r="M647" s="4"/>
       <c r="N647" s="4"/>
       <c r="O647" s="5"/>
       <c r="P647" s="5"/>
     </row>
-    <row r="648" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="648" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L648" s="5"/>
       <c r="M648" s="4"/>
       <c r="N648" s="4"/>
       <c r="O648" s="5"/>
       <c r="P648" s="5"/>
     </row>
-    <row r="649" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="649" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L649" s="5"/>
       <c r="M649" s="4"/>
       <c r="N649" s="4"/>
       <c r="O649" s="5"/>
       <c r="P649" s="5"/>
     </row>
-    <row r="650" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="650" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L650" s="5"/>
       <c r="M650" s="4"/>
       <c r="N650" s="4"/>
       <c r="O650" s="5"/>
       <c r="P650" s="5"/>
     </row>
-    <row r="651" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="651" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L651" s="5"/>
       <c r="M651" s="4"/>
       <c r="N651" s="4"/>
       <c r="O651" s="5"/>
       <c r="P651" s="5"/>
     </row>
-    <row r="652" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="652" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L652" s="5"/>
       <c r="M652" s="4"/>
       <c r="N652" s="4"/>
       <c r="O652" s="5"/>
       <c r="P652" s="5"/>
     </row>
-    <row r="653" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="653" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L653" s="5"/>
       <c r="M653" s="4"/>
       <c r="N653" s="4"/>
       <c r="O653" s="5"/>
       <c r="P653" s="5"/>
     </row>
-    <row r="654" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="654" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L654" s="5"/>
       <c r="M654" s="4"/>
       <c r="N654" s="4"/>
       <c r="O654" s="5"/>
       <c r="P654" s="5"/>
     </row>
-    <row r="655" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="655" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L655" s="5"/>
       <c r="M655" s="4"/>
       <c r="N655" s="4"/>
       <c r="O655" s="5"/>
       <c r="P655" s="5"/>
     </row>
-    <row r="656" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="656" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L656" s="5"/>
       <c r="M656" s="4"/>
       <c r="N656" s="4"/>
       <c r="O656" s="5"/>
       <c r="P656" s="5"/>
     </row>
-    <row r="657" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="657" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L657" s="5"/>
       <c r="M657" s="4"/>
       <c r="N657" s="4"/>
       <c r="O657" s="5"/>
       <c r="P657" s="5"/>
     </row>
-    <row r="658" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="658" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L658" s="5"/>
       <c r="M658" s="4"/>
       <c r="N658" s="4"/>
       <c r="O658" s="5"/>
       <c r="P658" s="5"/>
     </row>
-    <row r="659" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="659" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L659" s="5"/>
       <c r="M659" s="4"/>
       <c r="N659" s="4"/>
       <c r="O659" s="5"/>
       <c r="P659" s="5"/>
     </row>
-    <row r="660" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="660" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L660" s="5"/>
       <c r="M660" s="4"/>
       <c r="N660" s="4"/>
       <c r="O660" s="5"/>
       <c r="P660" s="5"/>
     </row>
-    <row r="661" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="661" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L661" s="5"/>
       <c r="M661" s="4"/>
       <c r="N661" s="4"/>
       <c r="O661" s="5"/>
       <c r="P661" s="5"/>
     </row>
-    <row r="662" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="662" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L662" s="5"/>
       <c r="M662" s="4"/>
       <c r="N662" s="4"/>
       <c r="O662" s="5"/>
       <c r="P662" s="5"/>
     </row>
-    <row r="663" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="663" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L663" s="5"/>
       <c r="M663" s="4"/>
       <c r="N663" s="4"/>
       <c r="O663" s="5"/>
       <c r="P663" s="5"/>
     </row>
-    <row r="664" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="664" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L664" s="5"/>
       <c r="M664" s="4"/>
       <c r="N664" s="4"/>
       <c r="O664" s="5"/>
       <c r="P664" s="5"/>
     </row>
-    <row r="665" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="665" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L665" s="5"/>
       <c r="M665" s="4"/>
       <c r="N665" s="4"/>
       <c r="O665" s="5"/>
       <c r="P665" s="5"/>
     </row>
-    <row r="666" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="666" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L666" s="5"/>
       <c r="M666" s="4"/>
       <c r="N666" s="4"/>
       <c r="O666" s="5"/>
       <c r="P666" s="5"/>
     </row>
-    <row r="667" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="667" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L667" s="5"/>
       <c r="M667" s="4"/>
       <c r="N667" s="4"/>
       <c r="O667" s="5"/>
       <c r="P667" s="5"/>
     </row>
-    <row r="668" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="668" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L668" s="5"/>
       <c r="M668" s="4"/>
       <c r="N668" s="4"/>
       <c r="O668" s="5"/>
       <c r="P668" s="5"/>
     </row>
-    <row r="669" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="669" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L669" s="5"/>
       <c r="M669" s="4"/>
       <c r="N669" s="4"/>
       <c r="O669" s="5"/>
       <c r="P669" s="5"/>
     </row>
-    <row r="670" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="670" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L670" s="5"/>
       <c r="M670" s="4"/>
       <c r="N670" s="4"/>
       <c r="O670" s="5"/>
       <c r="P670" s="5"/>
     </row>
-    <row r="671" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="671" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L671" s="5"/>
       <c r="M671" s="4"/>
       <c r="N671" s="4"/>
       <c r="O671" s="5"/>
       <c r="P671" s="5"/>
     </row>
-    <row r="672" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="672" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L672" s="5"/>
       <c r="M672" s="4"/>
       <c r="N672" s="4"/>
       <c r="O672" s="5"/>
       <c r="P672" s="5"/>
     </row>
-    <row r="673" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="673" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L673" s="5"/>
       <c r="M673" s="4"/>
       <c r="N673" s="4"/>
       <c r="O673" s="5"/>
       <c r="P673" s="5"/>
     </row>
-    <row r="674" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="674" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L674" s="5"/>
       <c r="M674" s="4"/>
       <c r="N674" s="4"/>
       <c r="O674" s="5"/>
       <c r="P674" s="5"/>
     </row>
-    <row r="675" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="675" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L675" s="5"/>
       <c r="M675" s="4"/>
       <c r="N675" s="4"/>
       <c r="O675" s="5"/>
       <c r="P675" s="5"/>
     </row>
-    <row r="676" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="676" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L676" s="5"/>
       <c r="M676" s="4"/>
       <c r="N676" s="4"/>
       <c r="O676" s="5"/>
       <c r="P676" s="5"/>
     </row>
-    <row r="677" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="677" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L677" s="5"/>
       <c r="M677" s="4"/>
       <c r="N677" s="4"/>
       <c r="O677" s="5"/>
       <c r="P677" s="5"/>
     </row>
-    <row r="678" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="678" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L678" s="5"/>
       <c r="M678" s="4"/>
       <c r="N678" s="4"/>
       <c r="O678" s="5"/>
       <c r="P678" s="5"/>
     </row>
-    <row r="679" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="679" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L679" s="5"/>
       <c r="M679" s="4"/>
       <c r="N679" s="4"/>
       <c r="O679" s="5"/>
       <c r="P679" s="5"/>
     </row>
-    <row r="680" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="680" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L680" s="5"/>
       <c r="M680" s="4"/>
       <c r="N680" s="4"/>
       <c r="O680" s="5"/>
       <c r="P680" s="5"/>
     </row>
-    <row r="681" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="681" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L681" s="5"/>
       <c r="M681" s="4"/>
       <c r="N681" s="4"/>
       <c r="O681" s="5"/>
       <c r="P681" s="5"/>
     </row>
-    <row r="682" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="682" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L682" s="5"/>
       <c r="M682" s="4"/>
       <c r="N682" s="4"/>
       <c r="O682" s="5"/>
       <c r="P682" s="5"/>
     </row>
-    <row r="683" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="683" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L683" s="5"/>
       <c r="M683" s="4"/>
       <c r="N683" s="4"/>
       <c r="O683" s="5"/>
       <c r="P683" s="5"/>
     </row>
-    <row r="684" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="684" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L684" s="5"/>
       <c r="M684" s="4"/>
       <c r="N684" s="4"/>
       <c r="O684" s="5"/>
       <c r="P684" s="5"/>
     </row>
-    <row r="685" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="685" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L685" s="5"/>
       <c r="M685" s="4"/>
       <c r="N685" s="4"/>
       <c r="O685" s="5"/>
       <c r="P685" s="5"/>
     </row>
-    <row r="686" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="686" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L686" s="5"/>
       <c r="M686" s="4"/>
       <c r="N686" s="4"/>
       <c r="O686" s="5"/>
       <c r="P686" s="5"/>
     </row>
-    <row r="687" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="687" spans="12:16" x14ac:dyDescent="0.15">
       <c r="L687" s="5"/>
       <c r="M687" s="4"/>
       <c r="N687" s="4"/>
       <c r="O687" s="5"/>
       <c r="P687" s="5"/>
     </row>
-    <row r="688" spans="12:16" x14ac:dyDescent="0.25">
+    <row r="688" spans="12:16" x14ac:dyDescent="0.15">
       <c r="M688" s="4"/>
       <c r="N688" s="4"/>
     </row>
-    <row r="689" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M689" s="4"/>
       <c r="N689" s="4"/>
     </row>
-    <row r="690" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="13:14" x14ac:dyDescent="0.15">
       <c r="M690" s="4"/>
       <c r="N690" s="4"/>
     </row>
@@ -8050,41 +8016,41 @@
   <dimension ref="A1:F684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="35.65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -8104,7 +8070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
@@ -8124,2839 +8090,2839 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="3"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="3"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="3"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="3"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="3"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="3"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="3"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="3"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="3"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="3"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="3"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="3"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="3"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="3"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="3"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="3"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="3"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="3"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="3"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="3"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="3"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="3"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="3"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="3"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="3"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="3"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="3"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="3"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="3"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
     </row>
-    <row r="355" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
     </row>
-    <row r="356" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
     </row>
-    <row r="357" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
     </row>
-    <row r="358" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
     </row>
-    <row r="359" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
     </row>
-    <row r="360" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
     </row>
-    <row r="361" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
     </row>
-    <row r="362" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
     </row>
-    <row r="363" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
     </row>
-    <row r="364" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
     </row>
-    <row r="365" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
     </row>
-    <row r="366" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
     </row>
-    <row r="367" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
     </row>
-    <row r="369" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
     </row>
-    <row r="370" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
     </row>
-    <row r="371" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
     </row>
-    <row r="376" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
     </row>
-    <row r="377" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
     </row>
-    <row r="379" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
     </row>
-    <row r="380" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
     </row>
-    <row r="383" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
     </row>
-    <row r="384" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
     </row>
-    <row r="385" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
     </row>
-    <row r="388" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
     </row>
-    <row r="395" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
     </row>
-    <row r="401" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
     </row>
-    <row r="402" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
     </row>
-    <row r="403" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
     </row>
-    <row r="404" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
     </row>
-    <row r="405" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
     </row>
-    <row r="406" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
     </row>
-    <row r="408" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
     </row>
-    <row r="409" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
     </row>
-    <row r="410" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
     </row>
-    <row r="411" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
     </row>
-    <row r="412" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
     </row>
-    <row r="413" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
     </row>
-    <row r="414" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
     </row>
-    <row r="415" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
     </row>
-    <row r="416" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
     </row>
-    <row r="417" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
     </row>
-    <row r="418" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
     </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
     </row>
-    <row r="420" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
     </row>
-    <row r="422" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
     </row>
-    <row r="423" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
     </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
     </row>
-    <row r="425" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
     </row>
-    <row r="426" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
     </row>
-    <row r="427" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
     </row>
-    <row r="428" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
     </row>
-    <row r="429" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
     </row>
-    <row r="430" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
     </row>
-    <row r="431" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
     </row>
-    <row r="432" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
     </row>
-    <row r="433" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
     </row>
-    <row r="434" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
     </row>
-    <row r="435" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
     </row>
-    <row r="439" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
     </row>
-    <row r="440" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
     </row>
-    <row r="441" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
     </row>
-    <row r="442" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
     </row>
-    <row r="443" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
     </row>
-    <row r="444" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
     </row>
-    <row r="445" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
     </row>
-    <row r="446" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
     </row>
-    <row r="447" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
     </row>
-    <row r="448" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
     </row>
-    <row r="449" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
     </row>
-    <row r="450" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
     </row>
-    <row r="451" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
     </row>
-    <row r="452" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
     </row>
-    <row r="453" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
     </row>
-    <row r="454" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
     </row>
-    <row r="455" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
     </row>
-    <row r="456" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
     </row>
-    <row r="457" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
     </row>
-    <row r="458" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
     </row>
-    <row r="459" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
     </row>
-    <row r="460" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
     </row>
-    <row r="461" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
     </row>
-    <row r="462" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
     </row>
-    <row r="463" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
     </row>
-    <row r="464" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
     </row>
-    <row r="465" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
     </row>
-    <row r="466" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
     </row>
-    <row r="467" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
     </row>
-    <row r="468" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
     </row>
-    <row r="469" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
     </row>
-    <row r="470" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
     </row>
-    <row r="471" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
     </row>
-    <row r="472" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
     </row>
-    <row r="474" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
     </row>
-    <row r="475" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
     </row>
-    <row r="476" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
     </row>
-    <row r="477" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
     </row>
-    <row r="478" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
     </row>
-    <row r="479" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
     </row>
-    <row r="480" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
     </row>
-    <row r="481" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
     </row>
-    <row r="482" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
     </row>
-    <row r="483" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
     </row>
-    <row r="484" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
     </row>
-    <row r="485" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
     </row>
-    <row r="486" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
     </row>
-    <row r="487" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
     </row>
-    <row r="488" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
     </row>
-    <row r="489" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
     </row>
-    <row r="490" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
     </row>
-    <row r="491" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
     </row>
-    <row r="492" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
     </row>
-    <row r="493" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
     </row>
-    <row r="494" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
     </row>
-    <row r="495" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
     </row>
-    <row r="496" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
     </row>
-    <row r="497" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
     </row>
-    <row r="498" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
     </row>
-    <row r="499" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
     </row>
-    <row r="500" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
     </row>
-    <row r="501" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
     </row>
-    <row r="502" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
     </row>
-    <row r="503" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
     </row>
-    <row r="504" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
     </row>
-    <row r="505" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
     </row>
-    <row r="506" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
     </row>
-    <row r="507" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
     </row>
-    <row r="508" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
     </row>
-    <row r="509" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
     </row>
-    <row r="510" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
     </row>
-    <row r="511" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
     </row>
-    <row r="512" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
     </row>
-    <row r="513" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
     </row>
-    <row r="514" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
     </row>
-    <row r="515" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
     </row>
-    <row r="516" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
     </row>
-    <row r="517" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
     </row>
-    <row r="518" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
     </row>
-    <row r="519" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
     </row>
-    <row r="520" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
     </row>
-    <row r="521" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
     </row>
-    <row r="522" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
     </row>
-    <row r="523" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
     </row>
-    <row r="524" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
     </row>
-    <row r="525" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
     </row>
-    <row r="526" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
     </row>
-    <row r="527" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
     </row>
-    <row r="528" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
     </row>
-    <row r="529" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
     </row>
-    <row r="530" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
     </row>
-    <row r="531" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
     </row>
-    <row r="532" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
     </row>
-    <row r="533" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
     </row>
-    <row r="534" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
     </row>
-    <row r="535" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
     </row>
-    <row r="536" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
     </row>
-    <row r="537" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
     </row>
-    <row r="538" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
     </row>
-    <row r="539" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
     </row>
-    <row r="540" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
     </row>
-    <row r="541" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
     </row>
-    <row r="542" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
     </row>
-    <row r="543" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
     </row>
-    <row r="544" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
     </row>
-    <row r="545" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
     </row>
-    <row r="546" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
     </row>
-    <row r="547" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
     </row>
-    <row r="548" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
     </row>
-    <row r="549" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
     </row>
-    <row r="550" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
     </row>
-    <row r="551" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
     </row>
-    <row r="552" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
     </row>
-    <row r="553" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
     </row>
-    <row r="554" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
     </row>
-    <row r="555" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
     </row>
-    <row r="556" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
     </row>
-    <row r="557" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
     </row>
-    <row r="558" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
     </row>
-    <row r="559" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
     </row>
-    <row r="560" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
     </row>
-    <row r="561" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
     </row>
-    <row r="562" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
     </row>
-    <row r="563" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
     </row>
-    <row r="564" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
     </row>
-    <row r="565" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
     </row>
-    <row r="566" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
     </row>
-    <row r="567" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
     </row>
-    <row r="568" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
     </row>
-    <row r="569" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
     </row>
-    <row r="570" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
     </row>
-    <row r="571" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
     </row>
-    <row r="572" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
     </row>
-    <row r="573" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
     </row>
-    <row r="574" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
     </row>
-    <row r="575" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
     </row>
-    <row r="576" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
     </row>
-    <row r="577" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
     </row>
-    <row r="578" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
     </row>
-    <row r="579" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
     </row>
-    <row r="580" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
     </row>
-    <row r="581" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
     </row>
-    <row r="582" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
     </row>
-    <row r="583" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
     </row>
-    <row r="584" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
     </row>
-    <row r="585" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
     </row>
-    <row r="586" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
     </row>
-    <row r="587" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
     </row>
-    <row r="588" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
     </row>
-    <row r="589" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
     </row>
-    <row r="590" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
     </row>
-    <row r="591" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
     </row>
-    <row r="592" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
     </row>
-    <row r="593" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
     </row>
-    <row r="594" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
     </row>
-    <row r="595" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
     </row>
-    <row r="596" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
     </row>
-    <row r="597" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
     </row>
-    <row r="598" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
     </row>
-    <row r="599" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
     </row>
-    <row r="600" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
     </row>
-    <row r="601" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
     </row>
-    <row r="602" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
     </row>
-    <row r="603" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
     </row>
-    <row r="604" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
     </row>
-    <row r="605" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
     </row>
-    <row r="606" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
     </row>
-    <row r="607" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
     </row>
-    <row r="608" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
     </row>
-    <row r="609" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
     </row>
-    <row r="610" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
     </row>
-    <row r="611" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
     </row>
-    <row r="612" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
     </row>
-    <row r="613" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
     </row>
-    <row r="614" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
     </row>
-    <row r="615" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
     </row>
-    <row r="616" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
     </row>
-    <row r="617" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
     </row>
-    <row r="618" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
     </row>
-    <row r="619" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
     </row>
-    <row r="620" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
     </row>
-    <row r="621" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
     </row>
-    <row r="622" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
     </row>
-    <row r="623" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
     </row>
-    <row r="624" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
     </row>
-    <row r="625" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
     </row>
-    <row r="626" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
     </row>
-    <row r="627" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
     </row>
-    <row r="628" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
     </row>
-    <row r="629" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
     </row>
-    <row r="630" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
     </row>
-    <row r="631" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
     </row>
-    <row r="632" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
     </row>
-    <row r="633" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
     </row>
-    <row r="634" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
     </row>
-    <row r="635" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
     </row>
-    <row r="636" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
     </row>
-    <row r="637" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
     </row>
-    <row r="638" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
     </row>
-    <row r="639" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
     </row>
-    <row r="640" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
     </row>
-    <row r="641" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
     </row>
-    <row r="642" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
     </row>
-    <row r="643" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
     </row>
-    <row r="644" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
     </row>
-    <row r="645" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
     </row>
-    <row r="646" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
     </row>
-    <row r="647" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
     </row>
-    <row r="648" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
     </row>
-    <row r="649" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
     </row>
-    <row r="650" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
     </row>
-    <row r="651" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
     </row>
-    <row r="652" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
     </row>
-    <row r="653" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
     </row>
-    <row r="654" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
     </row>
-    <row r="655" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
     </row>
-    <row r="656" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
     </row>
-    <row r="657" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
     </row>
-    <row r="658" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
     </row>
-    <row r="659" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
     </row>
-    <row r="660" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
     </row>
-    <row r="661" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
     </row>
-    <row r="662" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
     </row>
-    <row r="663" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
     </row>
-    <row r="664" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
     </row>
-    <row r="665" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
     </row>
-    <row r="666" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
     </row>
-    <row r="667" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
     </row>
-    <row r="668" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
     </row>
-    <row r="669" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
     </row>
-    <row r="670" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
     </row>
-    <row r="671" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
     </row>
-    <row r="672" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
     </row>
-    <row r="673" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
     </row>
-    <row r="674" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
     </row>
-    <row r="675" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
     </row>
-    <row r="676" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
     </row>
-    <row r="677" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
     </row>
-    <row r="678" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
     </row>
-    <row r="679" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
     </row>
-    <row r="680" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
     </row>
-    <row r="681" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
     </row>
-    <row r="682" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
     </row>
-    <row r="683" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
     </row>
-    <row r="684" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
     </row>
